--- a/data/Nedlands_suburb_properties.xlsx
+++ b/data/Nedlands_suburb_properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Haleh\DA\Projects\Project-3\Project3\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DA\Projects\Project3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9D8C5020-7726-4E5A-AC3D-F1096A2A8696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C5E2D1-668A-4FDF-BAC1-0A97B2EE0E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36015" yWindow="-1695" windowWidth="14625" windowHeight="15765"/>
+    <workbookView xWindow="10365" yWindow="4200" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nedlands_suburb_properties" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="447">
   <si>
     <t>address</t>
   </si>
@@ -343,9 +343,6 @@
     <t>9/192 Hampden Road</t>
   </si>
   <si>
-    <t>25A &amp; B Dalkeith Road</t>
-  </si>
-  <si>
     <t>25A Dalkeith Road</t>
   </si>
   <si>
@@ -1352,16 +1349,28 @@
   </si>
   <si>
     <t>Year Built</t>
+  </si>
+  <si>
+    <t>25B Dalkeith Road</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Land</t>
+  </si>
+  <si>
+    <t>Shop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1492,6 +1501,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2197,25 +2212,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="F290" sqref="F290"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.77734375" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.44140625" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2244,7 +2260,7 @@
         <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K1" t="s">
         <v>9</v>
@@ -2256,7 +2272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2288,7 +2304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2326,7 +2342,7 @@
         <v>41883</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2361,7 +2377,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -2390,7 +2406,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2428,7 +2444,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2460,7 +2476,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2501,7 +2517,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -2536,7 +2552,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -2574,7 +2590,7 @@
         <v>42948</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -2609,7 +2625,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -2650,7 +2666,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -2688,7 +2704,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -2729,7 +2745,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2770,7 +2786,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -2811,7 +2827,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -2846,7 +2862,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -2887,7 +2903,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -2922,7 +2938,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -2960,7 +2976,7 @@
         <v>43160</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -2995,7 +3011,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -3036,7 +3052,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -3071,7 +3087,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -3112,7 +3128,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -3147,7 +3163,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -3182,7 +3198,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -3223,7 +3239,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -3255,7 +3271,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -3293,7 +3309,7 @@
         <v>42278</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -3328,7 +3344,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -3363,7 +3379,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -3404,7 +3420,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -3433,7 +3449,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -3462,7 +3478,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>79</v>
       </c>
@@ -3494,7 +3510,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>80</v>
       </c>
@@ -3504,11 +3520,14 @@
       <c r="C36" s="2">
         <v>44197</v>
       </c>
+      <c r="D36" t="s">
+        <v>445</v>
+      </c>
       <c r="H36">
         <v>230</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -3543,7 +3562,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -3578,7 +3597,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -3607,7 +3626,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -3636,7 +3655,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -3674,7 +3693,7 @@
         <v>39722</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -3715,7 +3734,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>88</v>
       </c>
@@ -3753,7 +3772,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>90</v>
       </c>
@@ -3788,7 +3807,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -3826,7 +3845,7 @@
         <v>40483</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>93</v>
       </c>
@@ -3864,7 +3883,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>95</v>
       </c>
@@ -3896,7 +3915,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>96</v>
       </c>
@@ -3906,6 +3925,9 @@
       <c r="C48" s="2">
         <v>44136</v>
       </c>
+      <c r="D48" t="s">
+        <v>445</v>
+      </c>
       <c r="H48">
         <v>307</v>
       </c>
@@ -3913,7 +3935,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -3948,7 +3970,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -3986,7 +4008,7 @@
         <v>42826</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -4011,8 +4033,14 @@
       <c r="H51" s="3">
         <v>1012</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I51">
+        <v>133</v>
+      </c>
+      <c r="J51">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -4035,7 +4063,13 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>923</v>
+        <v>83</v>
+      </c>
+      <c r="I52">
+        <v>77</v>
+      </c>
+      <c r="J52">
+        <v>1965</v>
       </c>
       <c r="K52" t="s">
         <v>104</v>
@@ -4047,7 +4081,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -4061,16 +4095,25 @@
         <v>13</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F53">
+        <v>2</v>
+      </c>
+      <c r="G53">
         <v>1</v>
       </c>
       <c r="H53" s="3">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1034</v>
+      </c>
+      <c r="I53">
+        <v>134</v>
+      </c>
+      <c r="J53">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -4093,11 +4136,14 @@
         <v>2</v>
       </c>
       <c r="H54">
-        <v>930</v>
+        <v>152</v>
       </c>
       <c r="I54">
         <v>108</v>
       </c>
+      <c r="J54">
+        <v>1999</v>
+      </c>
       <c r="K54" t="s">
         <v>100</v>
       </c>
@@ -4105,9 +4151,9 @@
         <v>42948</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>443</v>
       </c>
       <c r="B55" s="1">
         <v>1750000</v>
@@ -4115,13 +4161,31 @@
       <c r="C55" s="2">
         <v>44136</v>
       </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <v>2</v>
+      </c>
       <c r="H55" s="3">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+      <c r="I55">
+        <v>80</v>
+      </c>
+      <c r="J55">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B56" s="1">
         <v>1750000</v>
@@ -4133,20 +4197,23 @@
         <v>13</v>
       </c>
       <c r="E56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H56" s="3">
-        <v>1016</v>
+        <v>393</v>
       </c>
       <c r="I56">
         <v>94</v>
       </c>
+      <c r="J56">
+        <v>1965</v>
+      </c>
       <c r="K56" t="s">
         <v>92</v>
       </c>
@@ -4154,9 +4221,9 @@
         <v>41852</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B57" s="1">
         <v>325000</v>
@@ -4164,8 +4231,26 @@
       <c r="C57" s="2">
         <v>44136</v>
       </c>
+      <c r="D57" t="s">
+        <v>444</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
       <c r="H57" s="3">
-        <v>1204</v>
+        <v>98</v>
+      </c>
+      <c r="I57">
+        <v>90</v>
+      </c>
+      <c r="J57">
+        <v>1967</v>
       </c>
       <c r="K57" t="s">
         <v>100</v>
@@ -4174,9 +4259,9 @@
         <v>44136</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B58" s="1">
         <v>1610000</v>
@@ -4199,16 +4284,22 @@
       <c r="H58">
         <v>923</v>
       </c>
+      <c r="I58">
+        <v>137</v>
+      </c>
+      <c r="J58">
+        <v>1959</v>
+      </c>
       <c r="K58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L58" s="2">
         <v>44136</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B59" s="1">
         <v>2799000</v>
@@ -4223,7 +4314,7 @@
         <v>5</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G59">
         <v>2</v>
@@ -4232,12 +4323,15 @@
         <v>1012</v>
       </c>
       <c r="I59">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+      <c r="J59">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B60" s="1">
         <v>530000</v>
@@ -4245,13 +4339,16 @@
       <c r="C60" s="2">
         <v>44105</v>
       </c>
+      <c r="D60" t="s">
+        <v>445</v>
+      </c>
       <c r="H60">
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B61" s="1">
         <v>1360000</v>
@@ -4263,13 +4360,13 @@
         <v>13</v>
       </c>
       <c r="E61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G61">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H61" s="3">
         <v>1041</v>
@@ -4277,6 +4374,9 @@
       <c r="I61">
         <v>195</v>
       </c>
+      <c r="J61">
+        <v>1954</v>
+      </c>
       <c r="K61" t="s">
         <v>23</v>
       </c>
@@ -4287,9 +4387,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B62" s="1">
         <v>1060000</v>
@@ -4300,10 +4400,19 @@
       <c r="D62" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B63" s="1">
         <v>1620000</v>
@@ -4327,12 +4436,15 @@
         <v>1020</v>
       </c>
       <c r="I63">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+      <c r="J63">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B64" s="1">
         <v>1290000</v>
@@ -4340,16 +4452,31 @@
       <c r="C64" s="2">
         <v>44105</v>
       </c>
+      <c r="D64" t="s">
+        <v>20</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
       <c r="H64">
         <v>211</v>
       </c>
       <c r="I64">
         <v>146</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J64">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B65" s="1">
         <v>1058000</v>
@@ -4357,19 +4484,34 @@
       <c r="C65" s="2">
         <v>44105</v>
       </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
       <c r="H65">
         <v>519</v>
       </c>
       <c r="I65">
         <v>180</v>
       </c>
+      <c r="J65">
+        <v>1958</v>
+      </c>
       <c r="M65" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>120</v>
       </c>
       <c r="B66" s="1">
         <v>1750000</v>
@@ -4378,7 +4520,7 @@
         <v>44105</v>
       </c>
       <c r="D66" t="s">
-        <v>13</v>
+        <v>445</v>
       </c>
       <c r="E66">
         <v>4</v>
@@ -4386,10 +4528,16 @@
       <c r="F66">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H66">
+        <v>1012</v>
+      </c>
+      <c r="J66">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B67" s="1">
         <v>1600000</v>
@@ -4401,10 +4549,10 @@
         <v>20</v>
       </c>
       <c r="E67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G67">
         <v>2</v>
@@ -4415,16 +4563,19 @@
       <c r="I67">
         <v>140</v>
       </c>
+      <c r="J67">
+        <v>2008</v>
+      </c>
       <c r="K67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L67" s="2">
         <v>44228</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B68" s="1">
         <v>1650000</v>
@@ -4450,16 +4601,19 @@
       <c r="I68">
         <v>242</v>
       </c>
+      <c r="J68">
+        <v>1950</v>
+      </c>
       <c r="K68" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L68" s="2">
         <v>43647</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B69" s="1">
         <v>510000</v>
@@ -4467,19 +4621,37 @@
       <c r="C69" s="2">
         <v>44105</v>
       </c>
+      <c r="D69" t="s">
+        <v>50</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
       <c r="H69" s="3">
-        <v>3499</v>
+        <v>69</v>
+      </c>
+      <c r="I69">
+        <v>69</v>
+      </c>
+      <c r="J69">
+        <v>1979</v>
       </c>
       <c r="K69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L69" s="2">
         <v>40087</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B70" s="1">
         <v>515000</v>
@@ -4487,8 +4659,26 @@
       <c r="C70" s="2">
         <v>44075</v>
       </c>
+      <c r="D70" t="s">
+        <v>50</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
       <c r="H70">
+        <v>102</v>
+      </c>
+      <c r="I70">
         <v>90</v>
+      </c>
+      <c r="J70">
+        <v>1979</v>
       </c>
       <c r="K70" t="s">
         <v>100</v>
@@ -4497,9 +4687,9 @@
         <v>42552</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B71" s="1">
         <v>1635000</v>
@@ -4525,6 +4715,9 @@
       <c r="I71">
         <v>181</v>
       </c>
+      <c r="J71">
+        <v>1936</v>
+      </c>
       <c r="K71" t="s">
         <v>37</v>
       </c>
@@ -4532,9 +4725,9 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B72" s="1">
         <v>1730000</v>
@@ -4555,12 +4748,18 @@
         <v>2</v>
       </c>
       <c r="H72" s="3">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1165</v>
+      </c>
+      <c r="I72">
+        <v>195</v>
+      </c>
+      <c r="J72">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B73" s="1">
         <v>430000</v>
@@ -4568,16 +4767,31 @@
       <c r="C73" s="2">
         <v>44044</v>
       </c>
+      <c r="D73" t="s">
+        <v>50</v>
+      </c>
+      <c r="E73">
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
       <c r="H73">
         <v>82</v>
       </c>
       <c r="I73">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="J73">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B74" s="1">
         <v>430000</v>
@@ -4585,22 +4799,37 @@
       <c r="C74" s="2">
         <v>44044</v>
       </c>
+      <c r="D74" t="s">
+        <v>50</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
       <c r="H74" s="3">
-        <v>1309</v>
+        <v>88</v>
       </c>
       <c r="I74">
         <v>70</v>
       </c>
+      <c r="J74">
+        <v>1949</v>
+      </c>
       <c r="K74" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L74" s="2">
         <v>43344</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B75" s="1">
         <v>1820000</v>
@@ -4624,18 +4853,21 @@
         <v>1013</v>
       </c>
       <c r="I75">
-        <v>254</v>
+        <v>248</v>
+      </c>
+      <c r="J75">
+        <v>1938</v>
       </c>
       <c r="K75" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="L75" s="2">
         <v>44105</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B76" s="1">
         <v>1900000</v>
@@ -4658,10 +4890,13 @@
       <c r="H76" s="3">
         <v>1012</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J76">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B77" s="1">
         <v>2400000</v>
@@ -4669,16 +4904,31 @@
       <c r="C77" s="2">
         <v>44013</v>
       </c>
+      <c r="D77" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="F77">
+        <v>4</v>
+      </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
       <c r="H77">
         <v>240</v>
       </c>
       <c r="I77">
         <v>179</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J77">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B78" s="1">
         <v>1635000</v>
@@ -4701,16 +4951,19 @@
       <c r="H78">
         <v>911</v>
       </c>
+      <c r="J78">
+        <v>1971</v>
+      </c>
       <c r="K78" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="L78" s="2">
         <v>44075</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B79" s="1">
         <v>1900000</v>
@@ -4722,18 +4975,27 @@
         <v>13</v>
       </c>
       <c r="E79">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F79">
         <v>3</v>
       </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
       <c r="H79" s="3">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1012</v>
+      </c>
+      <c r="I79">
+        <v>285</v>
+      </c>
+      <c r="J79">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B80" s="1">
         <v>520000</v>
@@ -4759,16 +5021,19 @@
       <c r="I80">
         <v>110</v>
       </c>
+      <c r="J80">
+        <v>1976</v>
+      </c>
       <c r="K80" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L80" s="2">
         <v>43586</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B81" s="1">
         <v>1625000</v>
@@ -4794,6 +5059,9 @@
       <c r="I81">
         <v>215</v>
       </c>
+      <c r="J81">
+        <v>1950</v>
+      </c>
       <c r="K81" t="s">
         <v>94</v>
       </c>
@@ -4801,9 +5069,9 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B82" s="1">
         <v>1722500</v>
@@ -4815,30 +5083,33 @@
         <v>13</v>
       </c>
       <c r="E82">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H82">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="I82">
-        <v>126</v>
+        <v>289</v>
+      </c>
+      <c r="J82">
+        <v>2019</v>
       </c>
       <c r="K82" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L82" s="2">
         <v>43952</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B83" s="1">
         <v>2720000</v>
@@ -4850,18 +5121,27 @@
         <v>13</v>
       </c>
       <c r="E83">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="F83">
+        <v>3</v>
+      </c>
+      <c r="G83">
+        <v>2</v>
       </c>
       <c r="H83" s="3">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="I83">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+        <v>436</v>
+      </c>
+      <c r="J83">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B84" s="1">
         <v>920000</v>
@@ -4876,17 +5156,20 @@
         <v>2</v>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G84">
         <v>2</v>
       </c>
       <c r="H84" s="3">
-        <v>3459</v>
+        <v>181</v>
       </c>
       <c r="I84">
         <v>121</v>
       </c>
+      <c r="J84">
+        <v>2009</v>
+      </c>
       <c r="K84" t="s">
         <v>86</v>
       </c>
@@ -4894,12 +5177,12 @@
         <v>43891</v>
       </c>
       <c r="M84" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>148</v>
       </c>
       <c r="B85" s="1">
         <v>2150000</v>
@@ -4923,18 +5206,21 @@
         <v>1277</v>
       </c>
       <c r="I85">
-        <v>373</v>
+        <v>355</v>
+      </c>
+      <c r="J85">
+        <v>1977</v>
       </c>
       <c r="K85" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L85" s="2">
         <v>43891</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B86" s="1">
         <v>1500000</v>
@@ -4955,10 +5241,13 @@
         <v>2</v>
       </c>
       <c r="H86">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="I86">
-        <v>164</v>
+        <v>171</v>
+      </c>
+      <c r="J86">
+        <v>1972</v>
       </c>
       <c r="K86" t="s">
         <v>104</v>
@@ -4967,9 +5256,9 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B87" s="1">
         <v>875000</v>
@@ -4977,16 +5266,31 @@
       <c r="C87" s="2">
         <v>43952</v>
       </c>
+      <c r="D87" t="s">
+        <v>50</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="G87">
+        <v>2</v>
+      </c>
       <c r="H87">
         <v>158</v>
       </c>
       <c r="I87">
         <v>131</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J87">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B88" s="1">
         <v>1800000</v>
@@ -5007,10 +5311,13 @@
         <v>1</v>
       </c>
       <c r="H88">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="I88">
-        <v>168</v>
+        <v>177</v>
+      </c>
+      <c r="J88">
+        <v>1950</v>
       </c>
       <c r="K88" t="s">
         <v>86</v>
@@ -5019,9 +5326,9 @@
         <v>41852</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B89" s="1">
         <v>2100000</v>
@@ -5045,18 +5352,21 @@
         <v>923</v>
       </c>
       <c r="I89">
-        <v>249</v>
+        <v>246</v>
+      </c>
+      <c r="J89">
+        <v>1939</v>
       </c>
       <c r="K89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L89" s="2">
         <v>42186</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B90" s="1">
         <v>415000</v>
@@ -5064,16 +5374,31 @@
       <c r="C90" s="2">
         <v>43952</v>
       </c>
+      <c r="D90" t="s">
+        <v>444</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
       <c r="H90">
         <v>101</v>
       </c>
       <c r="I90">
         <v>101</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J90">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B91" s="1">
         <v>1700000</v>
@@ -5085,10 +5410,10 @@
         <v>13</v>
       </c>
       <c r="E91">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -5096,10 +5421,13 @@
       <c r="H91">
         <v>834</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J91">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B92" s="1">
         <v>1975000</v>
@@ -5111,7 +5439,7 @@
         <v>13</v>
       </c>
       <c r="E92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F92">
         <v>2</v>
@@ -5120,15 +5448,18 @@
         <v>2</v>
       </c>
       <c r="H92">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="I92">
         <v>262</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J92">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B93" s="1">
         <v>2100000</v>
@@ -5149,21 +5480,24 @@
         <v>2</v>
       </c>
       <c r="H93" s="3">
-        <v>1005</v>
+        <v>1012</v>
       </c>
       <c r="I93">
         <v>377</v>
       </c>
+      <c r="J93">
+        <v>2007</v>
+      </c>
       <c r="K93" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L93" s="2">
         <v>40575</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B94" s="1">
         <v>1205000</v>
@@ -5184,10 +5518,13 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I94">
-        <v>213</v>
+        <v>203</v>
+      </c>
+      <c r="J94">
+        <v>1937</v>
       </c>
       <c r="K94" t="s">
         <v>42</v>
@@ -5196,9 +5533,9 @@
         <v>43040</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B95" s="1">
         <v>3250000</v>
@@ -5206,12 +5543,27 @@
       <c r="C95" s="2">
         <v>43922</v>
       </c>
+      <c r="D95" t="s">
+        <v>20</v>
+      </c>
+      <c r="E95">
+        <v>3</v>
+      </c>
+      <c r="F95">
+        <v>3</v>
+      </c>
+      <c r="G95">
+        <v>3</v>
+      </c>
       <c r="H95">
         <v>265</v>
       </c>
       <c r="I95">
         <v>184</v>
       </c>
+      <c r="J95">
+        <v>2008</v>
+      </c>
       <c r="K95" t="s">
         <v>76</v>
       </c>
@@ -5219,9 +5571,9 @@
         <v>43556</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B96" s="1">
         <v>1970000</v>
@@ -5244,10 +5596,16 @@
       <c r="H96" s="3">
         <v>1012</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I96">
+        <v>212</v>
+      </c>
+      <c r="J96">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B97" s="1">
         <v>2600000</v>
@@ -5268,18 +5626,24 @@
         <v>2</v>
       </c>
       <c r="H97">
-        <v>684</v>
+        <v>683</v>
+      </c>
+      <c r="I97">
+        <v>322</v>
+      </c>
+      <c r="J97">
+        <v>2012</v>
       </c>
       <c r="K97" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L97" s="2">
         <v>43070</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B98" s="1">
         <v>1600000</v>
@@ -5296,8 +5660,17 @@
       <c r="F98">
         <v>2</v>
       </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
       <c r="H98" s="3">
-        <v>1023</v>
+        <v>1012</v>
+      </c>
+      <c r="I98">
+        <v>217</v>
+      </c>
+      <c r="J98">
+        <v>1932</v>
       </c>
       <c r="K98" t="s">
         <v>23</v>
@@ -5306,9 +5679,9 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B99" s="1">
         <v>2300000</v>
@@ -5323,18 +5696,24 @@
         <v>3</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H99" s="3">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+        <v>1012</v>
+      </c>
+      <c r="I99">
+        <v>257</v>
+      </c>
+      <c r="J99">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B100" s="1">
         <v>600000</v>
@@ -5342,12 +5721,27 @@
       <c r="C100" s="2">
         <v>43891</v>
       </c>
+      <c r="D100" t="s">
+        <v>50</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
       <c r="H100">
-        <v>725</v>
+        <v>109</v>
       </c>
       <c r="I100">
         <v>116</v>
       </c>
+      <c r="J100">
+        <v>1984</v>
+      </c>
       <c r="K100" t="s">
         <v>92</v>
       </c>
@@ -5355,9 +5749,9 @@
         <v>40483</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B101" s="1">
         <v>1615000</v>
@@ -5381,12 +5775,15 @@
         <v>1012</v>
       </c>
       <c r="I101">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="J101">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B102" s="1">
         <v>1520000</v>
@@ -5409,19 +5806,22 @@
       <c r="H102" s="3">
         <v>1012</v>
       </c>
+      <c r="J102">
+        <v>1936</v>
+      </c>
       <c r="K102" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L102" s="2">
         <v>43831</v>
       </c>
       <c r="M102" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B103" s="1">
         <v>2350000</v>
@@ -5433,21 +5833,27 @@
         <v>13</v>
       </c>
       <c r="E103">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="G103">
+        <v>3</v>
       </c>
       <c r="H103">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="I103">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+      <c r="J103">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B104" s="1">
         <v>1720000</v>
@@ -5462,18 +5868,24 @@
         <v>4</v>
       </c>
       <c r="F104">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G104">
         <v>4</v>
       </c>
       <c r="H104">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+        <v>809</v>
+      </c>
+      <c r="I104">
+        <v>143</v>
+      </c>
+      <c r="J104">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B105" s="1">
         <v>1775000</v>
@@ -5485,7 +5897,7 @@
         <v>13</v>
       </c>
       <c r="E105">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F105">
         <v>2</v>
@@ -5496,10 +5908,16 @@
       <c r="H105">
         <v>880</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I105">
+        <v>365</v>
+      </c>
+      <c r="J105">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B106" s="1">
         <v>2775000</v>
@@ -5514,21 +5932,24 @@
         <v>3</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G106">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H106" s="3">
         <v>1012</v>
       </c>
       <c r="I106">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+      <c r="J106">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B107" s="1">
         <v>2000000</v>
@@ -5554,16 +5975,19 @@
       <c r="I107">
         <v>287</v>
       </c>
+      <c r="J107">
+        <v>1935</v>
+      </c>
       <c r="K107" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L107" s="2">
         <v>43586</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B108" s="1">
         <v>1050000</v>
@@ -5586,10 +6010,16 @@
       <c r="H108">
         <v>468</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I108">
+        <v>124</v>
+      </c>
+      <c r="J108">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B109" s="1">
         <v>2700000</v>
@@ -5615,16 +6045,19 @@
       <c r="I109">
         <v>356</v>
       </c>
+      <c r="J109">
+        <v>1935</v>
+      </c>
       <c r="K109" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L109" s="2">
         <v>39753</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B110" s="1">
         <v>1200000</v>
@@ -5647,10 +6080,16 @@
       <c r="H110">
         <v>696</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I110">
+        <v>178</v>
+      </c>
+      <c r="J110">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B111" s="1">
         <v>1820000</v>
@@ -5667,9 +6106,18 @@
       <c r="F111">
         <v>1</v>
       </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
       <c r="H111">
         <v>911</v>
       </c>
+      <c r="I111">
+        <v>100</v>
+      </c>
+      <c r="J111">
+        <v>1926</v>
+      </c>
       <c r="K111" t="s">
         <v>100</v>
       </c>
@@ -5677,9 +6125,9 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B112" s="1">
         <v>460000</v>
@@ -5687,22 +6135,37 @@
       <c r="C112" s="2">
         <v>43862</v>
       </c>
+      <c r="D112" t="s">
+        <v>50</v>
+      </c>
+      <c r="E112">
+        <v>2</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>2</v>
+      </c>
       <c r="H112" s="3">
-        <v>2033</v>
+        <v>72</v>
       </c>
       <c r="I112">
         <v>72</v>
       </c>
+      <c r="J112">
+        <v>1979</v>
+      </c>
       <c r="K112" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L112" s="2">
         <v>42675</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B113" s="1">
         <v>490000</v>
@@ -5710,10 +6173,31 @@
       <c r="C113" s="2">
         <v>43862</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D113" t="s">
+        <v>50</v>
+      </c>
+      <c r="E113">
+        <v>2</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>4</v>
+      </c>
+      <c r="H113">
+        <v>65</v>
+      </c>
+      <c r="I113">
+        <v>65</v>
+      </c>
+      <c r="J113">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B114" s="1">
         <v>2350000</v>
@@ -5725,10 +6209,10 @@
         <v>13</v>
       </c>
       <c r="E114">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F114">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G114">
         <v>2</v>
@@ -5737,12 +6221,15 @@
         <v>1012</v>
       </c>
       <c r="I114">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+      <c r="J114">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B115" s="1">
         <v>1325000</v>
@@ -5763,15 +6250,18 @@
         <v>2</v>
       </c>
       <c r="H115">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I115">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+      <c r="J115">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B116" s="1">
         <v>2225000</v>
@@ -5783,10 +6273,10 @@
         <v>13</v>
       </c>
       <c r="E116">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -5794,10 +6284,16 @@
       <c r="H116">
         <v>923</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I116">
+        <v>289</v>
+      </c>
+      <c r="J116">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B117" s="1">
         <v>1050000</v>
@@ -5818,7 +6314,13 @@
         <v>4</v>
       </c>
       <c r="H117">
-        <v>490</v>
+        <v>491</v>
+      </c>
+      <c r="I117">
+        <v>119</v>
+      </c>
+      <c r="J117">
+        <v>1916</v>
       </c>
       <c r="K117" t="s">
         <v>89</v>
@@ -5827,9 +6329,9 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B118" s="1">
         <v>830000</v>
@@ -5840,13 +6342,28 @@
       <c r="D118" t="s">
         <v>13</v>
       </c>
+      <c r="E118">
+        <v>2</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
       <c r="H118">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="I118">
+        <v>124</v>
+      </c>
+      <c r="J118">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B119" s="1">
         <v>1420000</v>
@@ -5867,12 +6384,18 @@
         <v>1</v>
       </c>
       <c r="H119">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+        <v>799</v>
+      </c>
+      <c r="I119">
+        <v>138</v>
+      </c>
+      <c r="J119">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B120" s="1">
         <v>2300000</v>
@@ -5896,12 +6419,15 @@
         <v>923</v>
       </c>
       <c r="I120">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+      <c r="J120">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B121" s="1">
         <v>1990050</v>
@@ -5916,18 +6442,24 @@
         <v>4</v>
       </c>
       <c r="F121">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
       </c>
       <c r="H121" s="3">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="I121">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+      <c r="J121">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B122" s="1">
         <v>1650000</v>
@@ -5942,18 +6474,24 @@
         <v>4</v>
       </c>
       <c r="F122">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G122">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H122" s="3">
         <v>1012</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I122">
+        <v>312</v>
+      </c>
+      <c r="J122">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B123" s="1">
         <v>1690000</v>
@@ -5965,7 +6503,7 @@
         <v>13</v>
       </c>
       <c r="E123">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F123">
         <v>3</v>
@@ -5977,18 +6515,21 @@
         <v>908</v>
       </c>
       <c r="I123">
-        <v>262</v>
+        <v>267</v>
+      </c>
+      <c r="J123">
+        <v>1930</v>
       </c>
       <c r="K123" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L123" s="2">
         <v>43132</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B124" s="1">
         <v>1620000</v>
@@ -6011,16 +6552,19 @@
       <c r="H124">
         <v>911</v>
       </c>
+      <c r="J124">
+        <v>1926</v>
+      </c>
       <c r="K124" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L124" s="2">
         <v>44136</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B125" s="1">
         <v>4500000</v>
@@ -6032,18 +6576,27 @@
         <v>13</v>
       </c>
       <c r="E125">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="G125">
+        <v>4</v>
       </c>
       <c r="H125" s="3">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+        <v>1045</v>
+      </c>
+      <c r="I125">
+        <v>489</v>
+      </c>
+      <c r="J125">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B126" s="1">
         <v>1700000</v>
@@ -6060,13 +6613,19 @@
       <c r="F126">
         <v>1</v>
       </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
       <c r="H126">
         <v>908</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J126">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B127" s="1">
         <v>1495000</v>
@@ -6078,24 +6637,27 @@
         <v>13</v>
       </c>
       <c r="E127">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H127">
-        <v>908</v>
+        <v>601</v>
       </c>
       <c r="I127">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+      <c r="J127">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B128" s="1">
         <v>2020000</v>
@@ -6118,10 +6680,16 @@
       <c r="H128" s="3">
         <v>1012</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I128">
+        <v>273</v>
+      </c>
+      <c r="J128">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B129" s="1">
         <v>1110000</v>
@@ -6144,10 +6712,16 @@
       <c r="H129">
         <v>696</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I129">
+        <v>188</v>
+      </c>
+      <c r="J129">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B130" s="1">
         <v>450000</v>
@@ -6155,22 +6729,37 @@
       <c r="C130" s="2">
         <v>43770</v>
       </c>
+      <c r="D130" t="s">
+        <v>444</v>
+      </c>
+      <c r="E130">
+        <v>2</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
       <c r="H130" s="3">
-        <v>1308</v>
+        <v>84</v>
       </c>
       <c r="I130">
         <v>84</v>
       </c>
+      <c r="J130">
+        <v>1949</v>
+      </c>
       <c r="K130" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L130" s="2">
         <v>44013</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B131" s="1">
         <v>535000</v>
@@ -6191,21 +6780,24 @@
         <v>2</v>
       </c>
       <c r="H131">
-        <v>930</v>
+        <v>164</v>
       </c>
       <c r="I131">
         <v>118</v>
       </c>
+      <c r="J131">
+        <v>1999</v>
+      </c>
       <c r="K131" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L131" s="2">
         <v>40299</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B132" s="1">
         <v>680000</v>
@@ -6213,19 +6805,37 @@
       <c r="C132" s="2">
         <v>43770</v>
       </c>
+      <c r="D132" t="s">
+        <v>50</v>
+      </c>
+      <c r="E132">
+        <v>3</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>2</v>
+      </c>
       <c r="H132" s="3">
-        <v>3016</v>
+        <v>122</v>
+      </c>
+      <c r="I132">
+        <v>122</v>
+      </c>
+      <c r="J132">
+        <v>1981</v>
       </c>
       <c r="K132" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L132" s="2">
         <v>41426</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B133" s="1">
         <v>1070000</v>
@@ -6248,10 +6858,16 @@
       <c r="H133">
         <v>455</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I133">
+        <v>156</v>
+      </c>
+      <c r="J133">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B134" s="1">
         <v>1315000</v>
@@ -6259,16 +6875,31 @@
       <c r="C134" s="2">
         <v>43770</v>
       </c>
+      <c r="D134" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134">
+        <v>3</v>
+      </c>
+      <c r="F134">
+        <v>3</v>
+      </c>
+      <c r="G134">
+        <v>4</v>
+      </c>
       <c r="H134">
         <v>331</v>
       </c>
       <c r="I134">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+      <c r="J134">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B135" s="1">
         <v>4950000</v>
@@ -6289,15 +6920,21 @@
         <v>4</v>
       </c>
       <c r="H135" s="3">
-        <v>1565</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+        <v>15156365</v>
+      </c>
+      <c r="I135">
+        <v>984</v>
+      </c>
+      <c r="J135">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B136" s="1">
-        <v>24500000</v>
+        <v>2450000</v>
       </c>
       <c r="C136" s="2">
         <v>43739</v>
@@ -6320,10 +6957,13 @@
       <c r="I136">
         <v>394</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J136">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B137" s="1">
         <v>2240000</v>
@@ -6349,10 +6989,13 @@
       <c r="I137">
         <v>333</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J137">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B138" s="1">
         <v>1655000</v>
@@ -6364,7 +7007,7 @@
         <v>13</v>
       </c>
       <c r="E138">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F138">
         <v>2</v>
@@ -6375,10 +7018,16 @@
       <c r="H138">
         <v>908</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I138">
+        <v>165</v>
+      </c>
+      <c r="J138">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B139" s="1">
         <v>1105000</v>
@@ -6393,15 +7042,21 @@
         <v>4</v>
       </c>
       <c r="F139">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G139">
+        <v>2</v>
       </c>
       <c r="H139">
         <v>696</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J139">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B140" s="1">
         <v>415000</v>
@@ -6427,13 +7082,16 @@
       <c r="I140">
         <v>84</v>
       </c>
+      <c r="J140">
+        <v>1966</v>
+      </c>
       <c r="M140" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
-        <v>215</v>
       </c>
       <c r="B141" s="1">
         <v>1750000</v>
@@ -6459,16 +7117,19 @@
       <c r="I141">
         <v>304</v>
       </c>
+      <c r="J141">
+        <v>1981</v>
+      </c>
       <c r="K141" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L141" s="2">
         <v>43709</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B142" s="1">
         <v>715000</v>
@@ -6489,11 +7150,14 @@
         <v>2</v>
       </c>
       <c r="H142" s="3">
-        <v>1754</v>
+        <v>123</v>
       </c>
       <c r="I142">
         <v>119</v>
       </c>
+      <c r="J142">
+        <v>2006</v>
+      </c>
       <c r="K142" t="s">
         <v>23</v>
       </c>
@@ -6501,12 +7165,12 @@
         <v>41091</v>
       </c>
       <c r="M142" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B143" s="1">
         <v>2000000</v>
@@ -6527,12 +7191,15 @@
         <v>2</v>
       </c>
       <c r="H143">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+      <c r="J143">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B144" s="1">
         <v>1635000</v>
@@ -6544,21 +7211,27 @@
         <v>13</v>
       </c>
       <c r="E144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G144">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H144" s="3">
         <v>1013</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I144">
+        <v>152</v>
+      </c>
+      <c r="J144">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B145" s="1">
         <v>1600000</v>
@@ -6582,12 +7255,15 @@
         <v>232</v>
       </c>
       <c r="I145">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+      <c r="J145">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B146" s="1">
         <v>440000</v>
@@ -6595,19 +7271,34 @@
       <c r="C146" s="2">
         <v>43678</v>
       </c>
+      <c r="D146" t="s">
+        <v>50</v>
+      </c>
+      <c r="E146">
+        <v>2</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146">
+        <v>1</v>
+      </c>
       <c r="H146" s="3">
-        <v>3510</v>
+        <v>68</v>
       </c>
       <c r="I146">
         <v>68</v>
       </c>
+      <c r="J146">
+        <v>1979</v>
+      </c>
       <c r="M146" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
         <v>222</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
-        <v>223</v>
       </c>
       <c r="B147" s="1">
         <v>2400000</v>
@@ -6630,6 +7321,9 @@
       <c r="H147" s="3">
         <v>1015</v>
       </c>
+      <c r="J147">
+        <v>1946</v>
+      </c>
       <c r="K147" t="s">
         <v>86</v>
       </c>
@@ -6637,9 +7331,9 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B148" s="1">
         <v>1660000</v>
@@ -6660,18 +7354,24 @@
         <v>1</v>
       </c>
       <c r="H148" s="3">
-        <v>2024</v>
+        <v>1012</v>
+      </c>
+      <c r="I148">
+        <v>280</v>
+      </c>
+      <c r="J148">
+        <v>1980</v>
       </c>
       <c r="K148" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L148" s="2">
         <v>41944</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B149" s="1">
         <v>2160000</v>
@@ -6686,21 +7386,24 @@
         <v>4</v>
       </c>
       <c r="F149">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G149">
         <v>2</v>
       </c>
       <c r="H149" s="3">
-        <v>1055</v>
+        <v>1012</v>
       </c>
       <c r="I149">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+      <c r="J149">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B150" s="1">
         <v>576000</v>
@@ -6723,16 +7426,22 @@
       <c r="H150">
         <v>116</v>
       </c>
+      <c r="I150">
+        <v>117</v>
+      </c>
+      <c r="J150">
+        <v>1977</v>
+      </c>
       <c r="K150" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L150" s="2">
         <v>43647</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B151" s="1">
         <v>441000</v>
@@ -6753,21 +7462,27 @@
         <v>1</v>
       </c>
       <c r="H151" s="3">
-        <v>2751</v>
+        <v>93</v>
+      </c>
+      <c r="I151">
+        <v>74</v>
+      </c>
+      <c r="J151">
+        <v>1973</v>
       </c>
       <c r="K151" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L151" s="2">
         <v>41306</v>
       </c>
       <c r="M151" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B152" s="1">
         <v>1400000</v>
@@ -6793,13 +7508,16 @@
       <c r="I152">
         <v>138</v>
       </c>
+      <c r="J152">
+        <v>1947</v>
+      </c>
       <c r="M152" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
-        <v>234</v>
       </c>
       <c r="B153" s="1">
         <v>1700000</v>
@@ -6822,10 +7540,16 @@
       <c r="H153" s="3">
         <v>1012</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I153">
+        <v>210</v>
+      </c>
+      <c r="J153">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B154" s="1">
         <v>1145000</v>
@@ -6849,15 +7573,18 @@
         <v>340</v>
       </c>
       <c r="I154">
-        <v>200</v>
+        <v>195</v>
+      </c>
+      <c r="J154">
+        <v>1995</v>
       </c>
       <c r="M154" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
-        <v>237</v>
       </c>
       <c r="B155" s="1">
         <v>1730000</v>
@@ -6878,12 +7605,15 @@
         <v>2</v>
       </c>
       <c r="H155" s="3">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+      <c r="J155">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B156" s="1">
         <v>1735000</v>
@@ -6906,10 +7636,13 @@
       <c r="H156" s="3">
         <v>1012</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J156">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B157" s="1">
         <v>2150000</v>
@@ -6921,27 +7654,33 @@
         <v>13</v>
       </c>
       <c r="E157">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G157">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H157">
-        <v>981</v>
+        <v>979</v>
+      </c>
+      <c r="I157">
+        <v>339</v>
+      </c>
+      <c r="J157">
+        <v>2015</v>
       </c>
       <c r="K157" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="L157" s="2">
         <v>43586</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B158" s="1">
         <v>735000</v>
@@ -6949,25 +7688,40 @@
       <c r="C158" s="2">
         <v>43647</v>
       </c>
+      <c r="D158" t="s">
+        <v>13</v>
+      </c>
+      <c r="E158">
+        <v>2</v>
+      </c>
+      <c r="F158">
+        <v>1</v>
+      </c>
+      <c r="G158">
+        <v>3</v>
+      </c>
       <c r="H158">
         <v>118</v>
       </c>
       <c r="I158">
         <v>118</v>
       </c>
+      <c r="J158">
+        <v>1939</v>
+      </c>
       <c r="K158" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L158" s="2">
         <v>42948</v>
       </c>
       <c r="M158" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>243</v>
       </c>
       <c r="B159" s="1">
         <v>1900000</v>
@@ -6979,15 +7733,24 @@
         <v>13</v>
       </c>
       <c r="E159">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F159">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159">
+        <v>1014</v>
+      </c>
+      <c r="J159">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B160" s="1">
         <v>2060000</v>
@@ -7004,16 +7767,22 @@
       <c r="F160">
         <v>2</v>
       </c>
+      <c r="G160">
+        <v>2</v>
+      </c>
       <c r="H160">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="I160">
         <v>211</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J160">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B161" s="1">
         <v>1025000</v>
@@ -7036,13 +7805,19 @@
       <c r="H161">
         <v>235</v>
       </c>
+      <c r="I161">
+        <v>198</v>
+      </c>
+      <c r="J161">
+        <v>2017</v>
+      </c>
       <c r="M161" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>246</v>
-      </c>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>247</v>
       </c>
       <c r="B162" s="1">
         <v>1100000</v>
@@ -7054,18 +7829,27 @@
         <v>13</v>
       </c>
       <c r="E162">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G162">
+        <v>2</v>
       </c>
       <c r="H162">
         <v>696</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I162">
+        <v>203</v>
+      </c>
+      <c r="J162">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B163" s="1">
         <v>1875000</v>
@@ -7086,24 +7870,27 @@
         <v>2</v>
       </c>
       <c r="H163">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="I163">
-        <v>217</v>
+        <v>240</v>
+      </c>
+      <c r="J163">
+        <v>1950</v>
       </c>
       <c r="K163" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L163" s="2">
         <v>43586</v>
       </c>
       <c r="M163" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B164" s="1">
         <v>1735000</v>
@@ -7120,13 +7907,22 @@
       <c r="F164">
         <v>2</v>
       </c>
+      <c r="G164">
+        <v>3</v>
+      </c>
       <c r="H164">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+        <v>911</v>
+      </c>
+      <c r="I164">
+        <v>243</v>
+      </c>
+      <c r="J164">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B165" s="1">
         <v>595000</v>
@@ -7144,14 +7940,17 @@
         <v>2</v>
       </c>
       <c r="G165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H165" s="3">
-        <v>1013</v>
+        <v>458</v>
       </c>
       <c r="I165">
         <v>110</v>
       </c>
+      <c r="J165">
+        <v>1993</v>
+      </c>
       <c r="K165" t="s">
         <v>89</v>
       </c>
@@ -7159,9 +7958,9 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B166" s="1">
         <v>1700000</v>
@@ -7182,10 +7981,13 @@
         <v>2</v>
       </c>
       <c r="H166" s="3">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="I166">
-        <v>200</v>
+        <v>219</v>
+      </c>
+      <c r="J166">
+        <v>1920</v>
       </c>
       <c r="K166" t="s">
         <v>94</v>
@@ -7194,12 +7996,12 @@
         <v>39600</v>
       </c>
       <c r="M166" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B167" s="1">
         <v>1600000</v>
@@ -7222,13 +8024,16 @@
       <c r="H167" s="3">
         <v>1012</v>
       </c>
+      <c r="J167">
+        <v>1933</v>
+      </c>
       <c r="M167" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B168" s="1">
         <v>722000</v>
@@ -7254,6 +8059,9 @@
       <c r="I168">
         <v>126</v>
       </c>
+      <c r="J168">
+        <v>1982</v>
+      </c>
       <c r="K168" t="s">
         <v>27</v>
       </c>
@@ -7261,12 +8069,12 @@
         <v>42705</v>
       </c>
       <c r="M168" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>256</v>
-      </c>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>257</v>
       </c>
       <c r="B169" s="1">
         <v>1000000</v>
@@ -7290,15 +8098,18 @@
         <v>445</v>
       </c>
       <c r="I169">
-        <v>125</v>
+        <v>142</v>
+      </c>
+      <c r="J169">
+        <v>1993</v>
       </c>
       <c r="M169" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>258</v>
-      </c>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
-        <v>259</v>
       </c>
       <c r="B170" s="1">
         <v>550000</v>
@@ -7319,21 +8130,27 @@
         <v>1</v>
       </c>
       <c r="H170" s="3">
-        <v>1754</v>
+        <v>115</v>
+      </c>
+      <c r="I170">
+        <v>91</v>
+      </c>
+      <c r="J170">
+        <v>2006</v>
       </c>
       <c r="K170" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L170" s="2">
         <v>43586</v>
       </c>
       <c r="M170" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B171" s="1">
         <v>800000</v>
@@ -7341,13 +8158,16 @@
       <c r="C171" s="2">
         <v>43586</v>
       </c>
+      <c r="D171" t="s">
+        <v>445</v>
+      </c>
       <c r="H171" s="3">
         <v>1012</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B172" s="1">
         <v>550000</v>
@@ -7368,24 +8188,27 @@
         <v>2</v>
       </c>
       <c r="H172" s="3">
-        <v>1861</v>
+        <v>148</v>
       </c>
       <c r="I172">
         <v>121</v>
       </c>
+      <c r="J172">
+        <v>1999</v>
+      </c>
       <c r="K172" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L172" s="2">
         <v>41913</v>
       </c>
       <c r="M172" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B173" s="1">
         <v>1200000</v>
@@ -7411,6 +8234,9 @@
       <c r="I173">
         <v>213</v>
       </c>
+      <c r="J173">
+        <v>2011</v>
+      </c>
       <c r="K173" t="s">
         <v>86</v>
       </c>
@@ -7418,12 +8244,12 @@
         <v>43922</v>
       </c>
       <c r="M173" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B174" s="1">
         <v>1875000</v>
@@ -7435,10 +8261,10 @@
         <v>13</v>
       </c>
       <c r="E174">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F174">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G174">
         <v>2</v>
@@ -7447,12 +8273,15 @@
         <v>1012</v>
       </c>
       <c r="I174">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+      <c r="J174">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B175" s="1">
         <v>1350000</v>
@@ -7464,7 +8293,7 @@
         <v>13</v>
       </c>
       <c r="E175">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F175">
         <v>2</v>
@@ -7475,13 +8304,19 @@
       <c r="H175">
         <v>461</v>
       </c>
+      <c r="I175">
+        <v>230</v>
+      </c>
+      <c r="J175">
+        <v>2001</v>
+      </c>
       <c r="M175" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B176" s="1">
         <v>2000000</v>
@@ -7496,24 +8331,27 @@
         <v>4</v>
       </c>
       <c r="F176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G176">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H176" s="3">
         <v>1012</v>
       </c>
+      <c r="J176">
+        <v>1970</v>
+      </c>
       <c r="K176" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L176" s="2">
         <v>44317</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B177" s="1">
         <v>875000</v>
@@ -7533,10 +8371,19 @@
       <c r="G177">
         <v>2</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="H177">
+        <v>696</v>
+      </c>
+      <c r="I177">
+        <v>139</v>
+      </c>
+      <c r="J177">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B178" s="1">
         <v>1490000</v>
@@ -7560,12 +8407,15 @@
         <v>976</v>
       </c>
       <c r="I178">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+      <c r="J178">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B179" s="1">
         <v>1525000</v>
@@ -7591,10 +8441,13 @@
       <c r="I179">
         <v>266</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J179">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B180" s="1">
         <v>1250000</v>
@@ -7618,21 +8471,24 @@
         <v>533</v>
       </c>
       <c r="I180">
-        <v>146</v>
+        <v>137</v>
+      </c>
+      <c r="J180">
+        <v>1933</v>
       </c>
       <c r="K180" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L180" s="2">
         <v>44197</v>
       </c>
       <c r="M180" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B181" s="1">
         <v>990000</v>
@@ -7650,7 +8506,7 @@
         <v>1</v>
       </c>
       <c r="G181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H181">
         <v>456</v>
@@ -7658,16 +8514,19 @@
       <c r="I181">
         <v>142</v>
       </c>
+      <c r="J181">
+        <v>1930</v>
+      </c>
       <c r="K181" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L181" s="2">
         <v>43831</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B182" s="1">
         <v>1860000</v>
@@ -7693,13 +8552,16 @@
       <c r="I182">
         <v>230</v>
       </c>
+      <c r="J182">
+        <v>1935</v>
+      </c>
       <c r="M182" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>279</v>
-      </c>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
-        <v>280</v>
       </c>
       <c r="B183" s="1">
         <v>1350000</v>
@@ -7714,24 +8576,30 @@
         <v>3</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="G183">
+        <v>3</v>
       </c>
       <c r="H183">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="I183">
         <v>173</v>
       </c>
+      <c r="J183">
+        <v>1933</v>
+      </c>
       <c r="K183" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L183" s="2">
         <v>44166</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B184" s="1">
         <v>900000</v>
@@ -7754,13 +8622,19 @@
       <c r="H184">
         <v>342</v>
       </c>
+      <c r="I184">
+        <v>174</v>
+      </c>
+      <c r="J184">
+        <v>2007</v>
+      </c>
       <c r="M184" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B185" s="1">
         <v>1150000</v>
@@ -7786,16 +8660,19 @@
       <c r="I185">
         <v>147</v>
       </c>
+      <c r="J185">
+        <v>1960</v>
+      </c>
       <c r="K185" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L185" s="2">
         <v>41487</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B186" s="1">
         <v>1040000</v>
@@ -7807,21 +8684,27 @@
         <v>13</v>
       </c>
       <c r="E186">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H186">
         <v>483</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I186">
+        <v>88</v>
+      </c>
+      <c r="J186">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B187" s="1">
         <v>485000</v>
@@ -7842,11 +8725,14 @@
         <v>2</v>
       </c>
       <c r="H187">
-        <v>930</v>
+        <v>142</v>
       </c>
       <c r="I187">
         <v>101</v>
       </c>
+      <c r="J187">
+        <v>1999</v>
+      </c>
       <c r="K187" t="s">
         <v>31</v>
       </c>
@@ -7854,12 +8740,12 @@
         <v>42736</v>
       </c>
       <c r="M187" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B188" s="1">
         <v>1630000</v>
@@ -7883,21 +8769,24 @@
         <v>503</v>
       </c>
       <c r="I188">
-        <v>240</v>
+        <v>239</v>
+      </c>
+      <c r="J188">
+        <v>2009</v>
       </c>
       <c r="K188" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L188" s="2">
         <v>41214</v>
       </c>
       <c r="M188" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B189" s="1">
         <v>1500000</v>
@@ -7918,21 +8807,24 @@
         <v>2</v>
       </c>
       <c r="H189">
-        <v>869</v>
+        <v>910</v>
+      </c>
+      <c r="J189">
+        <v>1926</v>
       </c>
       <c r="K189" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L189" s="2">
         <v>43525</v>
       </c>
       <c r="M189" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B190" s="1">
         <v>911000</v>
@@ -7958,10 +8850,13 @@
       <c r="I190">
         <v>114</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J190">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B191" s="1">
         <v>2125000</v>
@@ -7979,24 +8874,27 @@
         <v>2</v>
       </c>
       <c r="G191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H191">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="I191">
-        <v>240</v>
+        <v>260</v>
+      </c>
+      <c r="J191">
+        <v>1935</v>
       </c>
       <c r="K191" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L191" s="2">
         <v>43525</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B192" s="1">
         <v>1000000</v>
@@ -8013,9 +8911,18 @@
       <c r="F192">
         <v>1</v>
       </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
       <c r="H192">
         <v>468</v>
       </c>
+      <c r="I192">
+        <v>143</v>
+      </c>
+      <c r="J192">
+        <v>1921</v>
+      </c>
       <c r="K192" t="s">
         <v>89</v>
       </c>
@@ -8023,9 +8930,9 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B193" s="1">
         <v>3700000</v>
@@ -8049,7 +8956,10 @@
         <v>1012</v>
       </c>
       <c r="I193">
-        <v>420</v>
+        <v>438</v>
+      </c>
+      <c r="J193">
+        <v>2012</v>
       </c>
       <c r="K193" t="s">
         <v>92</v>
@@ -8058,12 +8968,12 @@
         <v>40179</v>
       </c>
       <c r="M193" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>296</v>
-      </c>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
-        <v>297</v>
       </c>
       <c r="B194" s="1">
         <v>2600000</v>
@@ -8089,13 +8999,16 @@
       <c r="I194">
         <v>425</v>
       </c>
+      <c r="J194">
+        <v>2010</v>
+      </c>
       <c r="M194" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>298</v>
-      </c>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>299</v>
       </c>
       <c r="B195" s="1">
         <v>1250000</v>
@@ -8113,27 +9026,30 @@
         <v>1</v>
       </c>
       <c r="G195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="I195">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="J195">
+        <v>1929</v>
       </c>
       <c r="K195" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L195" s="2">
         <v>43497</v>
       </c>
       <c r="M195" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B196" s="1">
         <v>1300000</v>
@@ -8156,13 +9072,16 @@
       <c r="H196">
         <v>533</v>
       </c>
+      <c r="J196">
+        <v>1935</v>
+      </c>
       <c r="M196" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B197" s="1">
         <v>2250000</v>
@@ -8174,7 +9093,7 @@
         <v>13</v>
       </c>
       <c r="E197">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F197">
         <v>3</v>
@@ -8186,21 +9105,24 @@
         <v>1209</v>
       </c>
       <c r="I197">
-        <v>260</v>
+        <v>241</v>
+      </c>
+      <c r="J197">
+        <v>1940</v>
       </c>
       <c r="K197" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L197" s="2">
         <v>43466</v>
       </c>
       <c r="M197" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B198" s="1">
         <v>955000</v>
@@ -8221,24 +9143,27 @@
         <v>1</v>
       </c>
       <c r="H198">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I198">
-        <v>122</v>
+        <v>124</v>
+      </c>
+      <c r="J198">
+        <v>1933</v>
       </c>
       <c r="K198" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L198" s="2">
         <v>41640</v>
       </c>
       <c r="M198" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B199" s="1">
         <v>1900000</v>
@@ -8264,19 +9189,22 @@
       <c r="I199">
         <v>171</v>
       </c>
+      <c r="J199">
+        <v>2008</v>
+      </c>
       <c r="K199" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L199" s="2">
         <v>43922</v>
       </c>
       <c r="M199" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>305</v>
-      </c>
-    </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
-        <v>306</v>
       </c>
       <c r="B200" s="1">
         <v>1090000</v>
@@ -8297,21 +9225,27 @@
         <v>2</v>
       </c>
       <c r="H200">
-        <v>190</v>
+        <v>189</v>
+      </c>
+      <c r="I200">
+        <v>129</v>
+      </c>
+      <c r="J200">
+        <v>2009</v>
       </c>
       <c r="K200" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L200" s="2">
         <v>43435</v>
       </c>
       <c r="M200" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B201" s="1">
         <v>1680000</v>
@@ -8334,10 +9268,13 @@
       <c r="H201">
         <v>809</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J201">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B202" s="1">
         <v>725000</v>
@@ -8358,7 +9295,13 @@
         <v>1</v>
       </c>
       <c r="H202">
-        <v>147</v>
+        <v>198</v>
+      </c>
+      <c r="I202">
+        <v>124</v>
+      </c>
+      <c r="J202">
+        <v>2006</v>
       </c>
       <c r="K202" t="s">
         <v>23</v>
@@ -8367,12 +9310,12 @@
         <v>43435</v>
       </c>
       <c r="M202" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
-        <v>312</v>
       </c>
       <c r="B203" s="1">
         <v>1650000</v>
@@ -8393,7 +9336,13 @@
         <v>3</v>
       </c>
       <c r="H203">
-        <v>966</v>
+        <v>1012</v>
+      </c>
+      <c r="I203">
+        <v>437</v>
+      </c>
+      <c r="J203">
+        <v>2020</v>
       </c>
       <c r="K203" t="s">
         <v>92</v>
@@ -8402,12 +9351,12 @@
         <v>43435</v>
       </c>
       <c r="M203" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
-        <v>314</v>
       </c>
       <c r="B204" s="1">
         <v>1900000</v>
@@ -8433,13 +9382,16 @@
       <c r="I204">
         <v>364</v>
       </c>
+      <c r="J204">
+        <v>1995</v>
+      </c>
       <c r="M204" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>315</v>
-      </c>
-    </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
-        <v>316</v>
       </c>
       <c r="B205" s="1">
         <v>2400000</v>
@@ -8465,10 +9417,13 @@
       <c r="I205">
         <v>330</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J205">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B206" s="1">
         <v>645000</v>
@@ -8489,15 +9444,21 @@
         <v>1</v>
       </c>
       <c r="H206" s="3">
-        <v>2551</v>
+        <v>115</v>
+      </c>
+      <c r="I206">
+        <v>117</v>
+      </c>
+      <c r="J206">
+        <v>1977</v>
       </c>
       <c r="M206" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B207" s="1">
         <v>550000</v>
@@ -8505,25 +9466,40 @@
       <c r="C207" s="2">
         <v>43374</v>
       </c>
+      <c r="D207" t="s">
+        <v>50</v>
+      </c>
+      <c r="E207">
+        <v>2</v>
+      </c>
+      <c r="F207">
+        <v>1</v>
+      </c>
+      <c r="G207">
+        <v>1</v>
+      </c>
       <c r="H207">
         <v>150</v>
       </c>
       <c r="I207">
         <v>84</v>
       </c>
+      <c r="J207">
+        <v>1975</v>
+      </c>
       <c r="K207" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="L207" s="2">
         <v>44044</v>
       </c>
       <c r="M207" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B208" s="1">
         <v>958000</v>
@@ -8549,6 +9525,9 @@
       <c r="I208">
         <v>162</v>
       </c>
+      <c r="J208">
+        <v>1995</v>
+      </c>
       <c r="K208" t="s">
         <v>23</v>
       </c>
@@ -8556,12 +9535,12 @@
         <v>42339</v>
       </c>
       <c r="M208" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
         <v>321</v>
-      </c>
-    </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
-        <v>322</v>
       </c>
       <c r="B209" s="1">
         <v>1530000</v>
@@ -8582,18 +9561,21 @@
         <v>3</v>
       </c>
       <c r="H209">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="I209">
         <v>213</v>
       </c>
+      <c r="J209">
+        <v>1933</v>
+      </c>
       <c r="M209" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B210" s="1">
         <v>1200000</v>
@@ -8619,13 +9601,16 @@
       <c r="I210">
         <v>222</v>
       </c>
+      <c r="J210">
+        <v>1937</v>
+      </c>
       <c r="M210" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B211" s="1">
         <v>1250000</v>
@@ -8648,6 +9633,9 @@
       <c r="H211">
         <v>697</v>
       </c>
+      <c r="J211">
+        <v>1950</v>
+      </c>
       <c r="K211" t="s">
         <v>42</v>
       </c>
@@ -8655,12 +9643,12 @@
         <v>42278</v>
       </c>
       <c r="M211" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
-        <v>326</v>
       </c>
       <c r="B212" s="1">
         <v>1545000</v>
@@ -8668,19 +9656,34 @@
       <c r="C212" s="2">
         <v>43374</v>
       </c>
+      <c r="D212" t="s">
+        <v>50</v>
+      </c>
+      <c r="E212">
+        <v>4</v>
+      </c>
+      <c r="F212">
+        <v>2</v>
+      </c>
+      <c r="G212">
+        <v>2</v>
+      </c>
       <c r="H212" s="3">
         <v>1012</v>
       </c>
       <c r="I212">
         <v>144</v>
       </c>
+      <c r="J212">
+        <v>2021</v>
+      </c>
       <c r="M212" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
-        <v>328</v>
       </c>
       <c r="B213" s="1">
         <v>1550000</v>
@@ -8703,19 +9706,25 @@
       <c r="H213">
         <v>999</v>
       </c>
+      <c r="I213">
+        <v>133</v>
+      </c>
+      <c r="J213">
+        <v>1935</v>
+      </c>
       <c r="K213" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L213" s="2">
         <v>43831</v>
       </c>
       <c r="M213" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
-        <v>330</v>
       </c>
       <c r="B214" s="1">
         <v>1615000</v>
@@ -8736,21 +9745,24 @@
         <v>1</v>
       </c>
       <c r="H214">
-        <v>965</v>
+        <v>1012</v>
+      </c>
+      <c r="J214">
+        <v>1948</v>
       </c>
       <c r="K214" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L214" s="2">
         <v>43497</v>
       </c>
       <c r="M214" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B215" s="1">
         <v>1925000</v>
@@ -8774,15 +9786,18 @@
         <v>1012</v>
       </c>
       <c r="I215">
-        <v>286</v>
+        <v>291</v>
+      </c>
+      <c r="J215">
+        <v>1930</v>
       </c>
       <c r="M215" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B216" s="1">
         <v>1700000</v>
@@ -8803,18 +9818,21 @@
         <v>2</v>
       </c>
       <c r="H216">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="I216">
-        <v>230</v>
+        <v>205</v>
+      </c>
+      <c r="J216">
+        <v>1935</v>
       </c>
       <c r="M216" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B217" s="1">
         <v>1170000</v>
@@ -8835,21 +9853,27 @@
         <v>2</v>
       </c>
       <c r="H217">
-        <v>664</v>
+        <v>696</v>
+      </c>
+      <c r="I217">
+        <v>166</v>
+      </c>
+      <c r="J217">
+        <v>1940</v>
       </c>
       <c r="K217" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L217" s="2">
         <v>41852</v>
       </c>
       <c r="M217" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B218" s="1">
         <v>2300000</v>
@@ -8873,15 +9897,18 @@
         <v>1012</v>
       </c>
       <c r="I218">
-        <v>195</v>
+        <v>308</v>
+      </c>
+      <c r="J218">
+        <v>2018</v>
       </c>
       <c r="M218" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
         <v>336</v>
-      </c>
-    </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
-        <v>337</v>
       </c>
       <c r="B219" s="1">
         <v>1505000</v>
@@ -8905,21 +9932,24 @@
         <v>787</v>
       </c>
       <c r="I219">
-        <v>319</v>
+        <v>238</v>
+      </c>
+      <c r="J219">
+        <v>1938</v>
       </c>
       <c r="K219" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L219" s="2">
         <v>41214</v>
       </c>
       <c r="M219" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B220" s="1">
         <v>592000</v>
@@ -8927,19 +9957,34 @@
       <c r="C220" s="2">
         <v>43344</v>
       </c>
+      <c r="D220" t="s">
+        <v>444</v>
+      </c>
+      <c r="E220">
+        <v>2</v>
+      </c>
+      <c r="F220">
+        <v>1</v>
+      </c>
+      <c r="G220">
+        <v>1</v>
+      </c>
       <c r="H220">
         <v>110</v>
       </c>
       <c r="I220">
         <v>110</v>
       </c>
+      <c r="J220">
+        <v>1979</v>
+      </c>
       <c r="M220" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B221" s="1">
         <v>900000</v>
@@ -8960,18 +10005,21 @@
         <v>2</v>
       </c>
       <c r="H221">
-        <v>263</v>
+        <v>311</v>
       </c>
       <c r="I221">
         <v>200</v>
       </c>
+      <c r="J221">
+        <v>2006</v>
+      </c>
       <c r="M221" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
         <v>340</v>
-      </c>
-    </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
-        <v>341</v>
       </c>
       <c r="B222" s="1">
         <v>1355000</v>
@@ -8994,13 +10042,16 @@
       <c r="H222">
         <v>533</v>
       </c>
+      <c r="J222">
+        <v>1930</v>
+      </c>
       <c r="M222" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B223" s="1">
         <v>1520000</v>
@@ -9023,13 +10074,19 @@
       <c r="H223">
         <v>713</v>
       </c>
+      <c r="I223">
+        <v>297</v>
+      </c>
+      <c r="J223">
+        <v>1926</v>
+      </c>
       <c r="M223" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>343</v>
-      </c>
-    </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
-        <v>344</v>
       </c>
       <c r="B224" s="1">
         <v>1000000</v>
@@ -9052,13 +10109,19 @@
       <c r="H224">
         <v>697</v>
       </c>
+      <c r="I224">
+        <v>145</v>
+      </c>
+      <c r="J224">
+        <v>1920</v>
+      </c>
       <c r="M224" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
         <v>345</v>
-      </c>
-    </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
-        <v>346</v>
       </c>
       <c r="B225" s="1">
         <v>2180000</v>
@@ -9079,15 +10142,21 @@
         <v>2</v>
       </c>
       <c r="H225">
-        <v>884</v>
+        <v>880</v>
+      </c>
+      <c r="I225">
+        <v>312</v>
+      </c>
+      <c r="J225">
+        <v>1926</v>
       </c>
       <c r="M225" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B226" s="1">
         <v>1400000</v>
@@ -9104,16 +10173,22 @@
       <c r="F226">
         <v>1</v>
       </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
       <c r="H226" s="3">
         <v>1037</v>
       </c>
+      <c r="J226">
+        <v>1960</v>
+      </c>
       <c r="M226" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B227" s="1">
         <v>1220000</v>
@@ -9139,19 +10214,22 @@
       <c r="I227">
         <v>123</v>
       </c>
+      <c r="J227">
+        <v>1937</v>
+      </c>
       <c r="K227" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L227" s="2">
         <v>40817</v>
       </c>
       <c r="M227" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B228" s="1">
         <v>1620000</v>
@@ -9175,21 +10253,24 @@
         <v>1036</v>
       </c>
       <c r="I228">
-        <v>345</v>
+        <v>328</v>
+      </c>
+      <c r="J228">
+        <v>1995</v>
       </c>
       <c r="K228" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L228" s="2">
         <v>42887</v>
       </c>
       <c r="M228" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B229" s="1">
         <v>1530000</v>
@@ -9201,21 +10282,30 @@
         <v>13</v>
       </c>
       <c r="E229">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F229">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
       </c>
       <c r="H229" s="3">
         <v>1012</v>
       </c>
+      <c r="I229">
+        <v>491</v>
+      </c>
+      <c r="J229">
+        <v>2020</v>
+      </c>
       <c r="M229" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>352</v>
-      </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
-        <v>353</v>
       </c>
       <c r="B230" s="1">
         <v>1455000</v>
@@ -9238,19 +10328,25 @@
       <c r="H230" s="3">
         <v>1012</v>
       </c>
+      <c r="I230">
+        <v>300</v>
+      </c>
+      <c r="J230">
+        <v>1945</v>
+      </c>
       <c r="K230" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L230" s="2">
         <v>44287</v>
       </c>
       <c r="M230" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B231" s="1">
         <v>1380000</v>
@@ -9274,21 +10370,24 @@
         <v>232</v>
       </c>
       <c r="I231">
-        <v>223</v>
+        <v>203</v>
+      </c>
+      <c r="J231">
+        <v>2006</v>
       </c>
       <c r="K231" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L231" s="2">
         <v>42095</v>
       </c>
       <c r="M231" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
         <v>355</v>
-      </c>
-    </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
-        <v>356</v>
       </c>
       <c r="B232" s="1">
         <v>2800000</v>
@@ -9312,15 +10411,18 @@
         <v>883</v>
       </c>
       <c r="I232">
-        <v>312</v>
+        <v>341</v>
+      </c>
+      <c r="J232">
+        <v>1989</v>
       </c>
       <c r="M232" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B233" s="1">
         <v>1250000</v>
@@ -9341,7 +10443,13 @@
         <v>2</v>
       </c>
       <c r="H233">
-        <v>419</v>
+        <v>376</v>
+      </c>
+      <c r="I233">
+        <v>158</v>
+      </c>
+      <c r="J233">
+        <v>1950</v>
       </c>
       <c r="K233" t="s">
         <v>16</v>
@@ -9350,12 +10458,12 @@
         <v>41852</v>
       </c>
       <c r="M233" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B234" s="1">
         <v>600000</v>
@@ -9363,13 +10471,25 @@
       <c r="C234" s="2">
         <v>43252</v>
       </c>
+      <c r="D234" t="s">
+        <v>446</v>
+      </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
       <c r="H234">
         <v>244</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B235" s="1">
         <v>1775000</v>
@@ -9386,22 +10506,31 @@
       <c r="F235">
         <v>1</v>
       </c>
+      <c r="G235">
+        <v>2</v>
+      </c>
       <c r="H235" s="3">
         <v>1012</v>
       </c>
+      <c r="I235">
+        <v>353</v>
+      </c>
+      <c r="J235">
+        <v>1935</v>
+      </c>
       <c r="K235" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L235" s="2">
         <v>42125</v>
       </c>
       <c r="M235" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B236" s="1">
         <v>710000</v>
@@ -9409,19 +10538,34 @@
       <c r="C236" s="2">
         <v>43252</v>
       </c>
+      <c r="D236" t="s">
+        <v>444</v>
+      </c>
+      <c r="E236">
+        <v>3</v>
+      </c>
+      <c r="F236">
+        <v>1</v>
+      </c>
+      <c r="G236">
+        <v>2</v>
+      </c>
       <c r="H236">
         <v>268</v>
       </c>
       <c r="I236">
         <v>129</v>
       </c>
+      <c r="J236">
+        <v>1988</v>
+      </c>
       <c r="M236" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B237" s="1">
         <v>1780000</v>
@@ -9445,15 +10589,18 @@
         <v>697</v>
       </c>
       <c r="I237">
-        <v>321</v>
+        <v>340</v>
+      </c>
+      <c r="J237">
+        <v>2001</v>
       </c>
       <c r="M237" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B238" s="1">
         <v>1950000</v>
@@ -9479,13 +10626,16 @@
       <c r="I238">
         <v>127</v>
       </c>
+      <c r="J238">
+        <v>2018</v>
+      </c>
       <c r="M238" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B239" s="1">
         <v>1700000</v>
@@ -9509,21 +10659,24 @@
         <v>1012</v>
       </c>
       <c r="I239">
-        <v>329</v>
+        <v>333</v>
+      </c>
+      <c r="J239">
+        <v>1933</v>
       </c>
       <c r="K239" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L239" s="2">
         <v>42156</v>
       </c>
       <c r="M239" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B240" s="1">
         <v>345000</v>
@@ -9531,13 +10684,28 @@
       <c r="C240" s="2">
         <v>43221</v>
       </c>
+      <c r="D240" t="s">
+        <v>446</v>
+      </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
       <c r="H240" s="3">
         <v>6883</v>
       </c>
-    </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J240">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B241" s="1">
         <v>1675000</v>
@@ -9558,18 +10726,21 @@
         <v>4</v>
       </c>
       <c r="H241" s="3">
-        <v>1034</v>
+        <v>533</v>
       </c>
       <c r="I241">
-        <v>329</v>
+        <v>310</v>
+      </c>
+      <c r="J241">
+        <v>2009</v>
       </c>
       <c r="M241" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B242" s="1">
         <v>1720000</v>
@@ -9586,16 +10757,22 @@
       <c r="F242">
         <v>2</v>
       </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
       <c r="H242">
         <v>923</v>
       </c>
+      <c r="J242">
+        <v>1959</v>
+      </c>
       <c r="M242" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B243" s="1">
         <v>455000</v>
@@ -9616,11 +10793,14 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>933</v>
+        <v>100</v>
       </c>
       <c r="I243">
         <v>70</v>
       </c>
+      <c r="J243">
+        <v>2013</v>
+      </c>
       <c r="K243" t="s">
         <v>31</v>
       </c>
@@ -9628,12 +10808,12 @@
         <v>42614</v>
       </c>
       <c r="M243" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B244" s="1">
         <v>2115000</v>
@@ -9645,7 +10825,7 @@
         <v>13</v>
       </c>
       <c r="E244">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F244">
         <v>3</v>
@@ -9657,15 +10837,18 @@
         <v>1012</v>
       </c>
       <c r="I244">
-        <v>222</v>
+        <v>414</v>
+      </c>
+      <c r="J244">
+        <v>1938</v>
       </c>
       <c r="M244" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
         <v>371</v>
-      </c>
-    </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
-        <v>372</v>
       </c>
       <c r="B245" s="1">
         <v>650000</v>
@@ -9673,13 +10856,16 @@
       <c r="C245" s="2">
         <v>43221</v>
       </c>
+      <c r="D245" t="s">
+        <v>446</v>
+      </c>
       <c r="H245" s="3">
         <v>6622</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B246" s="1">
         <v>390000</v>
@@ -9687,19 +10873,34 @@
       <c r="C246" s="2">
         <v>43221</v>
       </c>
+      <c r="D246" t="s">
+        <v>444</v>
+      </c>
+      <c r="E246">
+        <v>2</v>
+      </c>
+      <c r="F246">
+        <v>1</v>
+      </c>
+      <c r="G246">
+        <v>1</v>
+      </c>
       <c r="H246">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="I246">
-        <v>312</v>
+        <v>90</v>
+      </c>
+      <c r="J246">
+        <v>1967</v>
       </c>
       <c r="M246" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
         <v>374</v>
-      </c>
-    </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
-        <v>375</v>
       </c>
       <c r="B247" s="1">
         <v>960000</v>
@@ -9725,6 +10926,9 @@
       <c r="I247">
         <v>207</v>
       </c>
+      <c r="J247">
+        <v>1999</v>
+      </c>
       <c r="K247" t="s">
         <v>23</v>
       </c>
@@ -9732,12 +10936,12 @@
         <v>43252</v>
       </c>
       <c r="M247" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B248" s="1">
         <v>1375000</v>
@@ -9751,13 +10955,22 @@
       <c r="E248">
         <v>4</v>
       </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248">
+        <v>2</v>
+      </c>
       <c r="H248">
         <v>883</v>
       </c>
-    </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J248">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B249" s="1">
         <v>1430000</v>
@@ -9774,16 +10987,22 @@
       <c r="F249">
         <v>1</v>
       </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
       <c r="H249">
         <v>997</v>
       </c>
+      <c r="J249">
+        <v>1928</v>
+      </c>
       <c r="M249" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B250" s="1">
         <v>1300000</v>
@@ -9794,16 +11013,31 @@
       <c r="D250" t="s">
         <v>13</v>
       </c>
+      <c r="E250">
+        <v>0</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+      <c r="G250">
+        <v>2</v>
+      </c>
       <c r="H250">
         <v>923</v>
       </c>
+      <c r="I250">
+        <v>253</v>
+      </c>
+      <c r="J250">
+        <v>1939</v>
+      </c>
       <c r="M250" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B251" s="1">
         <v>1360000</v>
@@ -9824,15 +11058,21 @@
         <v>1</v>
       </c>
       <c r="H251" s="3">
-        <v>1034</v>
+        <v>535</v>
+      </c>
+      <c r="I251">
+        <v>234</v>
+      </c>
+      <c r="J251">
+        <v>2020</v>
       </c>
       <c r="M251" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B252" s="1">
         <v>1635000</v>
@@ -9855,13 +11095,19 @@
       <c r="H252" s="3">
         <v>1056</v>
       </c>
+      <c r="I252">
+        <v>191</v>
+      </c>
+      <c r="J252">
+        <v>1931</v>
+      </c>
       <c r="M252" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
         <v>381</v>
-      </c>
-    </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
-        <v>382</v>
       </c>
       <c r="B253" s="1">
         <v>900000</v>
@@ -9869,19 +11115,34 @@
       <c r="C253" s="2">
         <v>43191</v>
       </c>
+      <c r="D253" t="s">
+        <v>13</v>
+      </c>
+      <c r="E253">
+        <v>2</v>
+      </c>
+      <c r="F253">
+        <v>1</v>
+      </c>
+      <c r="G253">
+        <v>2</v>
+      </c>
       <c r="H253">
         <v>102</v>
       </c>
       <c r="I253">
         <v>102</v>
       </c>
+      <c r="J253">
+        <v>1945</v>
+      </c>
       <c r="M253" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B254" s="1">
         <v>3250000</v>
@@ -9889,6 +11150,18 @@
       <c r="C254" s="2">
         <v>43191</v>
       </c>
+      <c r="D254" t="s">
+        <v>446</v>
+      </c>
+      <c r="E254">
+        <v>0</v>
+      </c>
+      <c r="F254">
+        <v>0</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
       <c r="H254">
         <v>680</v>
       </c>
@@ -9896,15 +11169,15 @@
         <v>436</v>
       </c>
       <c r="K254" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L254" s="2">
         <v>40695</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B255" s="1">
         <v>2200000</v>
@@ -9930,13 +11203,16 @@
       <c r="I255">
         <v>261</v>
       </c>
+      <c r="J255">
+        <v>1945</v>
+      </c>
       <c r="M255" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B256" s="1">
         <v>1380000</v>
@@ -9944,25 +11220,40 @@
       <c r="C256" s="2">
         <v>43191</v>
       </c>
+      <c r="D256" t="s">
+        <v>20</v>
+      </c>
+      <c r="E256">
+        <v>3</v>
+      </c>
+      <c r="F256">
+        <v>2</v>
+      </c>
+      <c r="G256">
+        <v>2</v>
+      </c>
       <c r="H256">
         <v>184</v>
       </c>
       <c r="I256">
         <v>131</v>
       </c>
+      <c r="J256">
+        <v>2008</v>
+      </c>
       <c r="K256" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L256" s="2">
         <v>43070</v>
       </c>
       <c r="M256" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
         <v>387</v>
-      </c>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
-        <v>388</v>
       </c>
       <c r="B257" s="1">
         <v>1200000</v>
@@ -9988,19 +11279,22 @@
       <c r="I257">
         <v>348</v>
       </c>
+      <c r="J257">
+        <v>2010</v>
+      </c>
       <c r="K257" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L257" s="2">
         <v>42826</v>
       </c>
       <c r="M257" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B258" s="1">
         <v>1440000</v>
@@ -10023,13 +11317,19 @@
       <c r="H258">
         <v>760</v>
       </c>
+      <c r="I258">
+        <v>251</v>
+      </c>
+      <c r="J258">
+        <v>1960</v>
+      </c>
       <c r="M258" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
         <v>390</v>
-      </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
-        <v>391</v>
       </c>
       <c r="B259" s="1">
         <v>520000</v>
@@ -10055,19 +11355,22 @@
       <c r="I259">
         <v>88</v>
       </c>
+      <c r="J259">
+        <v>1939</v>
+      </c>
       <c r="K259" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L259" s="2">
         <v>43252</v>
       </c>
       <c r="M259" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B260" s="1">
         <v>420000</v>
@@ -10088,21 +11391,27 @@
         <v>1</v>
       </c>
       <c r="H260" s="3">
-        <v>1363</v>
+        <v>88</v>
+      </c>
+      <c r="I260">
+        <v>73</v>
+      </c>
+      <c r="J260">
+        <v>1988</v>
       </c>
       <c r="K260" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L260" s="2">
         <v>43405</v>
       </c>
       <c r="M260" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B261" s="1">
         <v>1500000</v>
@@ -10126,15 +11435,18 @@
         <v>468</v>
       </c>
       <c r="I261">
-        <v>104</v>
+        <v>217</v>
+      </c>
+      <c r="J261">
+        <v>1933</v>
       </c>
       <c r="M261" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B262" s="1">
         <v>1925000</v>
@@ -10157,13 +11469,16 @@
       <c r="H262">
         <v>810</v>
       </c>
+      <c r="J262">
+        <v>1940</v>
+      </c>
       <c r="M262" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B263" s="1">
         <v>695000</v>
@@ -10171,19 +11486,34 @@
       <c r="C263" s="2">
         <v>43160</v>
       </c>
+      <c r="D263" t="s">
+        <v>50</v>
+      </c>
+      <c r="E263">
+        <v>3</v>
+      </c>
+      <c r="F263">
+        <v>1</v>
+      </c>
+      <c r="G263">
+        <v>3</v>
+      </c>
       <c r="H263">
         <v>117</v>
       </c>
       <c r="I263">
         <v>117</v>
       </c>
+      <c r="J263">
+        <v>1982</v>
+      </c>
       <c r="M263" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B264" s="1">
         <v>1780000</v>
@@ -10209,6 +11539,9 @@
       <c r="I264">
         <v>210</v>
       </c>
+      <c r="J264">
+        <v>1936</v>
+      </c>
       <c r="K264" t="s">
         <v>42</v>
       </c>
@@ -10216,12 +11549,12 @@
         <v>39083</v>
       </c>
       <c r="M264" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B265" s="1">
         <v>580000</v>
@@ -10241,6 +11574,15 @@
       <c r="G265">
         <v>2</v>
       </c>
+      <c r="H265">
+        <v>98</v>
+      </c>
+      <c r="I265">
+        <v>98</v>
+      </c>
+      <c r="J265">
+        <v>1981</v>
+      </c>
       <c r="K265" t="s">
         <v>100</v>
       </c>
@@ -10248,12 +11590,12 @@
         <v>44013</v>
       </c>
       <c r="M265" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
         <v>398</v>
-      </c>
-    </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
-        <v>399</v>
       </c>
       <c r="B266" s="1">
         <v>510000</v>
@@ -10274,24 +11616,27 @@
         <v>1</v>
       </c>
       <c r="H266">
-        <v>923</v>
+        <v>83</v>
       </c>
       <c r="I266">
         <v>83</v>
       </c>
+      <c r="J266">
+        <v>1965</v>
+      </c>
       <c r="K266" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L266" s="2">
         <v>43862</v>
       </c>
       <c r="M266" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B267" s="1">
         <v>1930000</v>
@@ -10315,15 +11660,18 @@
         <v>908</v>
       </c>
       <c r="I267">
-        <v>323</v>
+        <v>281</v>
+      </c>
+      <c r="J267">
+        <v>1930</v>
       </c>
       <c r="M267" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B268" s="1">
         <v>480000</v>
@@ -10331,16 +11679,31 @@
       <c r="C268" s="2">
         <v>43160</v>
       </c>
+      <c r="D268" t="s">
+        <v>444</v>
+      </c>
+      <c r="E268">
+        <v>2</v>
+      </c>
+      <c r="F268">
+        <v>1</v>
+      </c>
+      <c r="G268">
+        <v>1</v>
+      </c>
       <c r="H268" s="3">
         <v>1012</v>
       </c>
       <c r="I268">
         <v>84</v>
       </c>
-    </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J268">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B269" s="1">
         <v>530000</v>
@@ -10366,19 +11729,22 @@
       <c r="I269">
         <v>108</v>
       </c>
+      <c r="J269">
+        <v>1976</v>
+      </c>
       <c r="K269" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L269" s="2">
         <v>41640</v>
       </c>
       <c r="M269" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B270" s="1">
         <v>560000</v>
@@ -10404,13 +11770,16 @@
       <c r="I270">
         <v>90</v>
       </c>
+      <c r="J270">
+        <v>2006</v>
+      </c>
       <c r="M270" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B271" s="1">
         <v>1625000</v>
@@ -10434,7 +11803,10 @@
         <v>923</v>
       </c>
       <c r="I271">
-        <v>255</v>
+        <v>211</v>
+      </c>
+      <c r="J271">
+        <v>1983</v>
       </c>
       <c r="K271" t="s">
         <v>37</v>
@@ -10443,12 +11815,12 @@
         <v>42917</v>
       </c>
       <c r="M271" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B272" s="1">
         <v>935000</v>
@@ -10474,13 +11846,16 @@
       <c r="I272">
         <v>94</v>
       </c>
+      <c r="J272">
+        <v>1945</v>
+      </c>
       <c r="M272" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B273" s="1">
         <v>2000000</v>
@@ -10503,13 +11878,16 @@
       <c r="H273">
         <v>883</v>
       </c>
+      <c r="J273">
+        <v>1935</v>
+      </c>
       <c r="M273" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B274" s="1">
         <v>1800000</v>
@@ -10533,21 +11911,24 @@
         <v>397</v>
       </c>
       <c r="I274">
-        <v>352</v>
+        <v>377</v>
+      </c>
+      <c r="J274">
+        <v>2008</v>
       </c>
       <c r="K274" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L274" s="2">
         <v>43070</v>
       </c>
       <c r="M274" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B275" s="1">
         <v>550000</v>
@@ -10555,19 +11936,34 @@
       <c r="C275" s="2">
         <v>43132</v>
       </c>
+      <c r="D275" t="s">
+        <v>50</v>
+      </c>
+      <c r="E275">
+        <v>2</v>
+      </c>
+      <c r="F275">
+        <v>1</v>
+      </c>
+      <c r="G275">
+        <v>1</v>
+      </c>
       <c r="H275">
         <v>225</v>
       </c>
       <c r="I275">
         <v>93</v>
       </c>
+      <c r="J275">
+        <v>1990</v>
+      </c>
       <c r="M275" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
         <v>411</v>
-      </c>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
-        <v>412</v>
       </c>
       <c r="B276" s="1">
         <v>1525000</v>
@@ -10593,13 +11989,16 @@
       <c r="I276">
         <v>361</v>
       </c>
+      <c r="J276">
+        <v>1938</v>
+      </c>
       <c r="M276" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B277" s="1">
         <v>537500</v>
@@ -10607,12 +12006,27 @@
       <c r="C277" s="2">
         <v>43132</v>
       </c>
+      <c r="D277" t="s">
+        <v>444</v>
+      </c>
+      <c r="E277">
+        <v>2</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
+      <c r="G277">
+        <v>1</v>
+      </c>
       <c r="H277" s="3">
-        <v>1053</v>
+        <v>109</v>
       </c>
       <c r="I277">
         <v>90</v>
       </c>
+      <c r="J277">
+        <v>1930</v>
+      </c>
       <c r="K277" t="s">
         <v>92</v>
       </c>
@@ -10620,12 +12034,12 @@
         <v>41883</v>
       </c>
       <c r="M277" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B278" s="1">
         <v>1640000</v>
@@ -10651,19 +12065,22 @@
       <c r="I278">
         <v>209</v>
       </c>
+      <c r="J278">
+        <v>1924</v>
+      </c>
       <c r="K278" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="L278" s="2">
         <v>43862</v>
       </c>
       <c r="M278" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B279" s="1">
         <v>1950000</v>
@@ -10678,21 +12095,27 @@
         <v>4</v>
       </c>
       <c r="F279">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G279">
         <v>4</v>
       </c>
       <c r="H279">
-        <v>966</v>
+        <v>1012</v>
+      </c>
+      <c r="I279">
+        <v>488</v>
+      </c>
+      <c r="J279">
+        <v>2021</v>
       </c>
       <c r="M279" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B280" s="1">
         <v>1660000</v>
@@ -10713,24 +12136,27 @@
         <v>2</v>
       </c>
       <c r="H280">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I280">
-        <v>202</v>
+        <v>208</v>
+      </c>
+      <c r="J280">
+        <v>1925</v>
       </c>
       <c r="K280" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L280" s="2">
         <v>44136</v>
       </c>
       <c r="M280" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B281" s="1">
         <v>1620000</v>
@@ -10738,19 +12164,34 @@
       <c r="C281" s="2">
         <v>43132</v>
       </c>
+      <c r="D281" t="s">
+        <v>13</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+      <c r="G281">
+        <v>2</v>
+      </c>
       <c r="H281" s="3">
         <v>1012</v>
       </c>
       <c r="I281">
         <v>260</v>
       </c>
+      <c r="J281">
+        <v>1938</v>
+      </c>
       <c r="M281" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B282" s="1">
         <v>910000</v>
@@ -10776,19 +12217,22 @@
       <c r="I282">
         <v>134</v>
       </c>
+      <c r="J282">
+        <v>1981</v>
+      </c>
       <c r="K282" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="L282" s="2">
         <v>43647</v>
       </c>
       <c r="M282" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B283" s="1">
         <v>3700000</v>
@@ -10811,13 +12255,19 @@
       <c r="H283" s="3">
         <v>1012</v>
       </c>
+      <c r="I283">
+        <v>318</v>
+      </c>
+      <c r="J283">
+        <v>2017</v>
+      </c>
       <c r="M283" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B284" s="1">
         <v>3000000</v>
@@ -10841,15 +12291,18 @@
         <v>1012</v>
       </c>
       <c r="I284">
-        <v>371</v>
+        <v>363</v>
+      </c>
+      <c r="J284">
+        <v>1933</v>
       </c>
       <c r="M284" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B285" s="1">
         <v>960000</v>
@@ -10873,7 +12326,10 @@
         <v>456</v>
       </c>
       <c r="I285">
-        <v>105</v>
+        <v>89</v>
+      </c>
+      <c r="J285">
+        <v>1927</v>
       </c>
       <c r="K285" t="s">
         <v>23</v>
@@ -10882,12 +12338,12 @@
         <v>42461</v>
       </c>
       <c r="M285" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
         <v>424</v>
-      </c>
-    </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A286" t="s">
-        <v>425</v>
       </c>
       <c r="B286" s="1">
         <v>1300000</v>
@@ -10913,6 +12369,9 @@
       <c r="I286">
         <v>174</v>
       </c>
+      <c r="J286">
+        <v>1974</v>
+      </c>
       <c r="K286" t="s">
         <v>35</v>
       </c>
@@ -10920,12 +12379,12 @@
         <v>42370</v>
       </c>
       <c r="M286" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B287" s="1">
         <v>2000000</v>
@@ -10948,13 +12407,19 @@
       <c r="H287">
         <v>998</v>
       </c>
+      <c r="I287">
+        <v>260</v>
+      </c>
+      <c r="J287">
+        <v>1973</v>
+      </c>
       <c r="M287" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B288" s="1">
         <v>1451000</v>
@@ -10977,19 +12442,22 @@
       <c r="H288">
         <v>946</v>
       </c>
+      <c r="J288">
+        <v>1951</v>
+      </c>
       <c r="K288" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L288" s="2">
         <v>43101</v>
       </c>
       <c r="M288" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B289" s="1">
         <v>700000</v>
@@ -10997,16 +12465,22 @@
       <c r="C289" s="2">
         <v>43101</v>
       </c>
+      <c r="D289" t="s">
+        <v>446</v>
+      </c>
       <c r="H289" s="3">
         <v>1861</v>
       </c>
       <c r="I289">
         <v>84</v>
       </c>
-    </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J289">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B290" s="1">
         <v>1900000</v>
@@ -11029,19 +12503,25 @@
       <c r="H290" s="3">
         <v>1012</v>
       </c>
+      <c r="I290">
+        <v>259</v>
+      </c>
+      <c r="J290">
+        <v>1935</v>
+      </c>
       <c r="K290" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L290" s="2">
         <v>42186</v>
       </c>
       <c r="M290" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B291" s="1">
         <v>1760000</v>
@@ -11053,7 +12533,7 @@
         <v>13</v>
       </c>
       <c r="E291">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F291">
         <v>2</v>
@@ -11062,15 +12542,21 @@
         <v>6</v>
       </c>
       <c r="H291">
-        <v>866</v>
+        <v>905</v>
+      </c>
+      <c r="I291">
+        <v>170</v>
+      </c>
+      <c r="J291">
+        <v>1932</v>
       </c>
       <c r="M291" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B292" s="1">
         <v>2250000</v>
@@ -11096,13 +12582,16 @@
       <c r="I292">
         <v>299</v>
       </c>
+      <c r="J292">
+        <v>1950</v>
+      </c>
       <c r="M292" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B293" s="1">
         <v>2125000</v>
@@ -11119,16 +12608,25 @@
       <c r="F293">
         <v>2</v>
       </c>
+      <c r="G293">
+        <v>2</v>
+      </c>
       <c r="H293" s="3">
         <v>1136</v>
       </c>
+      <c r="I293">
+        <v>285</v>
+      </c>
+      <c r="J293">
+        <v>1955</v>
+      </c>
       <c r="M293" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B294" s="1">
         <v>1400000</v>
@@ -11152,21 +12650,24 @@
         <v>923</v>
       </c>
       <c r="I294">
-        <v>200</v>
+        <v>188</v>
+      </c>
+      <c r="J294">
+        <v>1960</v>
       </c>
       <c r="K294" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L294" s="2">
         <v>40848</v>
       </c>
       <c r="M294" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B295" s="1">
         <v>1710000</v>
@@ -11192,13 +12693,16 @@
       <c r="I295">
         <v>285</v>
       </c>
+      <c r="J295">
+        <v>2002</v>
+      </c>
       <c r="M295" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B296" s="1">
         <v>420000</v>
@@ -11218,6 +12722,9 @@
       <c r="G296">
         <v>1</v>
       </c>
+      <c r="J296">
+        <v>1966</v>
+      </c>
       <c r="K296" t="s">
         <v>40</v>
       </c>
@@ -11225,12 +12732,12 @@
         <v>43405</v>
       </c>
       <c r="M296" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B297" s="1">
         <v>1330000</v>
@@ -11256,19 +12763,22 @@
       <c r="I297">
         <v>909</v>
       </c>
+      <c r="J297">
+        <v>1955</v>
+      </c>
       <c r="K297" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L297" s="2">
         <v>43070</v>
       </c>
       <c r="M297" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B298" s="1">
         <v>1185000</v>
@@ -11291,19 +12801,25 @@
       <c r="H298">
         <v>491</v>
       </c>
+      <c r="I298">
+        <v>144</v>
+      </c>
+      <c r="J298">
+        <v>1932</v>
+      </c>
       <c r="K298" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L298" s="2">
         <v>41214</v>
       </c>
       <c r="M298" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B299" s="1">
         <v>1956000</v>
@@ -11329,19 +12845,22 @@
       <c r="I299">
         <v>351</v>
       </c>
+      <c r="J299">
+        <v>2004</v>
+      </c>
       <c r="K299" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="L299" s="2">
         <v>44228</v>
       </c>
       <c r="M299" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B300" s="1">
         <v>1370000</v>
@@ -11364,19 +12883,22 @@
       <c r="H300">
         <v>697</v>
       </c>
+      <c r="J300">
+        <v>1938</v>
+      </c>
       <c r="K300" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L300" s="2">
         <v>42401</v>
       </c>
       <c r="M300" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B301" s="1">
         <v>2015000</v>
@@ -11384,17 +12906,33 @@
       <c r="C301" s="2">
         <v>43070</v>
       </c>
+      <c r="D301" t="s">
+        <v>20</v>
+      </c>
+      <c r="E301">
+        <v>3</v>
+      </c>
+      <c r="F301">
+        <v>2</v>
+      </c>
+      <c r="G301">
+        <v>2</v>
+      </c>
       <c r="H301">
         <v>333</v>
       </c>
       <c r="I301">
         <v>176</v>
       </c>
+      <c r="J301">
+        <v>2008</v>
+      </c>
       <c r="M301" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Nedlands_suburb_properties.xlsx
+++ b/data/Nedlands_suburb_properties.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DA\Projects\Project3\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Haleh\DA\Projects\Project-3\Project3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C5E2D1-668A-4FDF-BAC1-0A97B2EE0E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F76C03F-A8E2-4C1F-9002-D603BF688BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10365" yWindow="4200" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36015" yWindow="-1695" windowWidth="14625" windowHeight="15765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nedlands_suburb_properties" sheetId="1" r:id="rId1"/>
@@ -2215,23 +2215,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="F290" sqref="F290"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>41883</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2517,7 +2517,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>42948</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -2827,7 +2827,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>49</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -2976,7 +2976,7 @@
         <v>43160</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -3052,7 +3052,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -3198,7 +3198,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>69</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>42278</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>71</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>73</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>77</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>78</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>79</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>80</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>81</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>83</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>39722</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -3734,7 +3734,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>88</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>90</v>
       </c>
@@ -3807,7 +3807,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>40483</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>93</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>95</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>96</v>
       </c>
@@ -3935,7 +3935,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>42826</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>102</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -4113,7 +4113,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>106</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>42948</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>443</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>107</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>41852</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>108</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>44136</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>109</v>
       </c>
@@ -4297,7 +4297,7 @@
         <v>44136</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>111</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>112</v>
       </c>
@@ -4346,7 +4346,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>113</v>
       </c>
@@ -4387,7 +4387,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>114</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>115</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>116</v>
       </c>
@@ -4474,7 +4474,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>117</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>119</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>120</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>122</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>124</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>40087</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>126</v>
       </c>
@@ -4687,7 +4687,7 @@
         <v>42552</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>127</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>128</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>129</v>
       </c>
@@ -4789,7 +4789,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>130</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>43344</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>132</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>44105</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>134</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>135</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>136</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>44075</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>138</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>139</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>141</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>142</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>144</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>145</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>147</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>43891</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>149</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>150</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>151</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>41852</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>152</v>
       </c>
@@ -5364,7 +5364,7 @@
         <v>42186</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>153</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>154</v>
       </c>
@@ -5425,7 +5425,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>155</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>156</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>40575</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>158</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>43040</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>159</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>43556</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>160</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>161</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>43070</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>163</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>164</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>165</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>40483</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>166</v>
       </c>
@@ -5781,7 +5781,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>167</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>170</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>171</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>172</v>
       </c>
@@ -5915,7 +5915,7 @@
         <v>1989</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>173</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>174</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>175</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>176</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>39753</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>178</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>179</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>180</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>42675</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>181</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>182</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>183</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>184</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>185</v>
       </c>
@@ -6329,7 +6329,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>186</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>187</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>188</v>
       </c>
@@ -6425,7 +6425,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>189</v>
       </c>
@@ -6457,7 +6457,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>190</v>
       </c>
@@ -6489,7 +6489,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>191</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>43132</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>193</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>44136</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>195</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>196</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>197</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>198</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>199</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>200</v>
       </c>
@@ -6757,7 +6757,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>202</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>40299</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>204</v>
       </c>
@@ -6833,7 +6833,7 @@
         <v>41426</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>205</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>206</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>207</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>208</v>
       </c>
@@ -6961,7 +6961,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>209</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>210</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>211</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>212</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>214</v>
       </c>
@@ -7127,7 +7127,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>216</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>217</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>218</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>219</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>220</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>222</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>223</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>41944</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>225</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>226</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>228</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>231</v>
       </c>
@@ -7515,7 +7515,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>233</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>234</v>
       </c>
@@ -7582,7 +7582,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>236</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>237</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>238</v>
       </c>
@@ -7678,7 +7678,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>240</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>242</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>243</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>244</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>246</v>
       </c>
@@ -7847,7 +7847,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>247</v>
       </c>
@@ -7888,7 +7888,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>250</v>
       </c>
@@ -7920,7 +7920,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>251</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>43497</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>252</v>
       </c>
@@ -7999,7 +7999,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>253</v>
       </c>
@@ -8031,7 +8031,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>254</v>
       </c>
@@ -8072,7 +8072,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>256</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>258</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>261</v>
       </c>
@@ -8165,7 +8165,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>262</v>
       </c>
@@ -8206,7 +8206,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>265</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>266</v>
       </c>
@@ -8279,7 +8279,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>267</v>
       </c>
@@ -8314,7 +8314,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>268</v>
       </c>
@@ -8349,7 +8349,7 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>270</v>
       </c>
@@ -8381,7 +8381,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>271</v>
       </c>
@@ -8413,7 +8413,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>272</v>
       </c>
@@ -8445,7 +8445,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>273</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>276</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>277</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>279</v>
       </c>
@@ -8597,7 +8597,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>281</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>282</v>
       </c>
@@ -8670,7 +8670,7 @@
         <v>41487</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>283</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>284</v>
       </c>
@@ -8743,7 +8743,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>285</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>288</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>290</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>291</v>
       </c>
@@ -8892,7 +8892,7 @@
         <v>43525</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>293</v>
       </c>
@@ -8930,7 +8930,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>294</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>296</v>
       </c>
@@ -9006,7 +9006,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>298</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>300</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>301</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>302</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>303</v>
       </c>
@@ -9202,7 +9202,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>305</v>
       </c>
@@ -9243,7 +9243,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>308</v>
       </c>
@@ -9272,7 +9272,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>309</v>
       </c>
@@ -9313,7 +9313,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>311</v>
       </c>
@@ -9354,7 +9354,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>313</v>
       </c>
@@ -9389,7 +9389,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>315</v>
       </c>
@@ -9421,7 +9421,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>316</v>
       </c>
@@ -9456,7 +9456,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>317</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>319</v>
       </c>
@@ -9538,7 +9538,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>321</v>
       </c>
@@ -9573,7 +9573,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>322</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>323</v>
       </c>
@@ -9646,7 +9646,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>325</v>
       </c>
@@ -9681,7 +9681,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>327</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>329</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>330</v>
       </c>
@@ -9795,7 +9795,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>331</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>332</v>
       </c>
@@ -9871,7 +9871,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>334</v>
       </c>
@@ -9906,7 +9906,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>336</v>
       </c>
@@ -9947,7 +9947,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>337</v>
       </c>
@@ -9982,7 +9982,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>338</v>
       </c>
@@ -10017,7 +10017,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>340</v>
       </c>
@@ -10049,7 +10049,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>341</v>
       </c>
@@ -10084,7 +10084,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>343</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>345</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>346</v>
       </c>
@@ -10186,7 +10186,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>347</v>
       </c>
@@ -10227,7 +10227,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>349</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>350</v>
       </c>
@@ -10303,7 +10303,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>352</v>
       </c>
@@ -10344,7 +10344,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>353</v>
       </c>
@@ -10385,7 +10385,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>355</v>
       </c>
@@ -10420,7 +10420,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>356</v>
       </c>
@@ -10461,7 +10461,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>357</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>358</v>
       </c>
@@ -10528,7 +10528,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>360</v>
       </c>
@@ -10563,7 +10563,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>361</v>
       </c>
@@ -10598,7 +10598,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>362</v>
       </c>
@@ -10633,7 +10633,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>363</v>
       </c>
@@ -10674,7 +10674,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>365</v>
       </c>
@@ -10703,7 +10703,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>366</v>
       </c>
@@ -10738,7 +10738,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>367</v>
       </c>
@@ -10770,7 +10770,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>368</v>
       </c>
@@ -10811,7 +10811,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>369</v>
       </c>
@@ -10846,7 +10846,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>371</v>
       </c>
@@ -10863,7 +10863,7 @@
         <v>6622</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>372</v>
       </c>
@@ -10898,7 +10898,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>374</v>
       </c>
@@ -10939,7 +10939,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>375</v>
       </c>
@@ -10968,7 +10968,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>376</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>377</v>
       </c>
@@ -11035,7 +11035,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>378</v>
       </c>
@@ -11070,7 +11070,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>379</v>
       </c>
@@ -11105,7 +11105,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>381</v>
       </c>
@@ -11140,7 +11140,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>382</v>
       </c>
@@ -11175,7 +11175,7 @@
         <v>40695</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>384</v>
       </c>
@@ -11210,7 +11210,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>385</v>
       </c>
@@ -11251,7 +11251,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>387</v>
       </c>
@@ -11292,7 +11292,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>388</v>
       </c>
@@ -11327,7 +11327,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>390</v>
       </c>
@@ -11368,7 +11368,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>391</v>
       </c>
@@ -11409,7 +11409,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>392</v>
       </c>
@@ -11444,7 +11444,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>393</v>
       </c>
@@ -11476,7 +11476,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>394</v>
       </c>
@@ -11511,7 +11511,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>395</v>
       </c>
@@ -11552,7 +11552,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>396</v>
       </c>
@@ -11593,7 +11593,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>398</v>
       </c>
@@ -11634,7 +11634,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>400</v>
       </c>
@@ -11669,7 +11669,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>401</v>
       </c>
@@ -11701,7 +11701,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>402</v>
       </c>
@@ -11742,7 +11742,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>403</v>
       </c>
@@ -11777,7 +11777,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>404</v>
       </c>
@@ -11818,7 +11818,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>405</v>
       </c>
@@ -11853,7 +11853,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>406</v>
       </c>
@@ -11885,7 +11885,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>407</v>
       </c>
@@ -11926,7 +11926,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>409</v>
       </c>
@@ -11961,7 +11961,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>411</v>
       </c>
@@ -11996,7 +11996,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>412</v>
       </c>
@@ -12037,7 +12037,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>413</v>
       </c>
@@ -12078,7 +12078,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>415</v>
       </c>
@@ -12113,7 +12113,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>416</v>
       </c>
@@ -12154,7 +12154,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>417</v>
       </c>
@@ -12189,7 +12189,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>418</v>
       </c>
@@ -12230,7 +12230,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>420</v>
       </c>
@@ -12265,7 +12265,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>421</v>
       </c>
@@ -12300,7 +12300,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>422</v>
       </c>
@@ -12341,7 +12341,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>424</v>
       </c>
@@ -12382,7 +12382,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>425</v>
       </c>
@@ -12417,7 +12417,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>426</v>
       </c>
@@ -12455,7 +12455,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>427</v>
       </c>
@@ -12478,7 +12478,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>428</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>429</v>
       </c>
@@ -12554,7 +12554,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>430</v>
       </c>
@@ -12589,7 +12589,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>431</v>
       </c>
@@ -12624,7 +12624,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>432</v>
       </c>
@@ -12665,7 +12665,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>433</v>
       </c>
@@ -12700,7 +12700,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>434</v>
       </c>
@@ -12735,7 +12735,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>435</v>
       </c>
@@ -12776,7 +12776,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>436</v>
       </c>
@@ -12817,7 +12817,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>437</v>
       </c>
@@ -12858,7 +12858,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>439</v>
       </c>
@@ -12896,7 +12896,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>441</v>
       </c>
